--- a/履歴書_李東基.xlsx
+++ b/履歴書_李東基.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://candrgroup-my.sharepoint.com/personal/nana_togawa_hq_cri_co_jp/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\회사 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6C270314-5E01-4BFA-B42F-6830272763A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C2F78-28AF-49E2-BA66-DEACB07F93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14475" yWindow="1125" windowWidth="13725" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">履歴書!$A$1:$AV$60</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t xml:space="preserve"> ふりがな</t>
   </si>
@@ -217,7 +204,256 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とうきょうと　すみだく　いしわら</t>
+    <t>飛鳳高等学校　卒業</t>
+    <rPh sb="7" eb="9">
+      <t>ソツギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2012年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2012年 </t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職歴</t>
+    <rPh sb="0" eb="2">
+      <t>ショクレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JLPT　N3 取得</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通自動車第一種免許　取得</t>
+    <rPh sb="0" eb="10">
+      <t>フツウジドウシャダイイッシュメンキョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2009年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2010年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wold 取得</t>
+    <rPh sb="0" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel 取得</t>
+    <rPh sb="0" eb="8">
+      <t>フツウジドウシャダイイッシュメンキョシュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerPoint 取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>趣味：モバイルゲーム、旅行、グルメ探し、サッカー</t>
+    <rPh sb="0" eb="2">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い　どんぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 以上　　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵役義務　入隊</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイエキギム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵役義務　満期除隊</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイエキギム</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>マンキジョタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靑江文化産業大学校　ゲーム学科　入学</t>
+    <rPh sb="16" eb="18">
+      <t>ニュウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靑江文化産業大学校　ゲーム学科　卒業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社トリサン　エンターテイメント開発部　入社</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキカイシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在に至る</t>
+    <rPh sb="0" eb="5">
+      <t>ゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以　上　　</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -232,7 +468,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>〒</t>
+      <t>〒193</t>
     </r>
     <r>
       <rPr>
@@ -242,265 +478,12 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>130-0011</t>
+      <t>-0832</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛鳳高等学校　卒業</t>
-    <rPh sb="7" eb="9">
-      <t>ソツギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2012年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2012年 </t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学歴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>職歴</t>
-    <rPh sb="0" eb="2">
-      <t>ショクレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JLPT　N3 取得</t>
-    <rPh sb="8" eb="10">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>普通自動車第一種免許　取得</t>
-    <rPh sb="0" eb="10">
-      <t>フツウジドウシャダイイッシュメンキョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務地は東京を希望します。
-御社の規定に従います。
-現在就業中のため、平日9時～19時は電話に出られな場合があります。
-留守番電話やメールで連絡いただけましたら、確認次第折り返しご連額致します。
-メールアドレス：zkskep_@naver.com</t>
-    <rPh sb="14" eb="16">
-      <t>オンシャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>シュウギョウチュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヘイジツ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="65">
-      <t>ルスバンデンワ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="81" eb="85">
-      <t>カクニンシダイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="90" eb="93">
-      <t>レンガクイタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2023年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームプログラマーになりたいと思った理由は、幼いころ、MMORPGフリーゲームを作って運営したことがきっかけです。自分が設計したゲームの中でユーザーが楽しそうにプレイしている姿を見て、プログラミングへの熱がさらに高まり、将来はゲーム会社に就職して、よりたくさんのユーザーがゲームを楽しめる世界を作りたいと思いました。
-私は、社内のゲームづくりに携わる他部署の方々と協議する際は、プログラマーの視点から、技術的に可能な部分とそうでない部分を議論し、納期や費用感等のビジネス的バランスを鑑みながらも、ユーザーにとってよりよい作品を作るために努力することに達成感を覚えます。
-今後も新しい経験を積みながら、自分のプログラミング技術と知識、今までの経験を活かしてゲームプログラマーとして働きたいと考え、貴社に志望いたしました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2009年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2010年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3月</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wold 取得</t>
-    <rPh sb="0" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Excel 取得</t>
-    <rPh sb="0" eb="8">
-      <t>フツウジドウシャダイイッシュメンキョシュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PowerPoint 取得</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>趣味：モバイルゲーム、旅行、グルメ探し、サッカー</t>
-    <rPh sb="0" eb="2">
-      <t>シュミ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>リョコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い　どんぎ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 以上　　　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2019年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都墨田区石原1-４－６ベルファース両国602号室</t>
+    <t>東京都八王子市散田町1-16-21ザ・パームス西八王子５０９</t>
     <rPh sb="0" eb="3">
       <t>トウキョウト</t>
     </rPh>
@@ -510,54 +493,20 @@
     <rPh sb="6" eb="8">
       <t>イシワラ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="21" eb="23">
       <t>リョウコク</t>
     </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="26" eb="28">
       <t>ゴウシツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
+    <t>12月</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>兵役義務　入隊</t>
-    <rPh sb="0" eb="4">
-      <t>ヘイエキギム</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>兵役義務　満期除隊</t>
-    <rPh sb="0" eb="4">
-      <t>ヘイエキギム</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>マンキジョタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>靑江文化産業大学校　ゲーム学科　入学</t>
-    <rPh sb="16" eb="18">
-      <t>ニュウガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>靑江文化産業大学校　ゲーム学科　卒業</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社Yfactory　入社</t>
+    <t>株式会社Yfactory「韓国企業」　入社</t>
     <rPh sb="0" eb="4">
       <t>カブシキカイシャ</t>
     </rPh>
@@ -567,7 +516,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社Yfactory　一身上の都合により退職</t>
+    <t>株式会社Yfactory「韓国企業」　一身上の都合により退職</t>
     <rPh sb="0" eb="4">
       <t>カブシキカイシャ</t>
     </rPh>
@@ -583,17 +532,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社トリサン　エンターテイメント開発部　入社</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキカイシャ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015年</t>
+    <t>とうきょうと　はちおうじし　さんだまち</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -601,18 +540,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -804,7 +743,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -875,6 +814,7 @@
     <font>
       <sz val="12"/>
       <name val="Meiryo"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -897,19 +837,19 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="52">
@@ -1496,7 +1436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1696,6 +1636,78 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1864,6 +1876,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1928,30 +1964,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1996,14 +2008,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2012,6 +2016,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2025,22 +2045,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2292,86 +2296,42 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2999,24 +2959,24 @@
   </sheetPr>
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="Z55" sqref="Z55:AU60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="45" width="5" style="1" customWidth="1"/>
     <col min="46" max="47" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" ht="34.799999999999997">
-      <c r="B1" s="140" t="s">
+    <row r="1" spans="2:47" ht="35.25">
+      <c r="B1" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3116,19 +3076,19 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="186" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="187"/>
+      <c r="H3" s="202" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="203"/>
       <c r="J3" s="11"/>
       <c r="K3" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="14">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N3" s="52" t="s">
         <v>14</v>
@@ -3172,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
@@ -3196,54 +3156,54 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="69" t="s">
+      <c r="Z4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AA4" s="70"/>
+      <c r="AA4" s="88"/>
       <c r="AB4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="71" t="s">
+      <c r="AC4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="72"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="90"/>
     </row>
     <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -3254,48 +3214,48 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="96" t="s">
+      <c r="Z5" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="62" t="s">
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="106"/>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="107"/>
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="130"/>
+      <c r="AG5" s="130"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="131"/>
     </row>
     <row r="6" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="20"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -3306,28 +3266,28 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="109"/>
-      <c r="AK6" s="109"/>
-      <c r="AL6" s="109"/>
-      <c r="AM6" s="109"/>
-      <c r="AN6" s="109"/>
-      <c r="AO6" s="109"/>
-      <c r="AP6" s="109"/>
-      <c r="AQ6" s="109"/>
-      <c r="AR6" s="109"/>
-      <c r="AS6" s="109"/>
-      <c r="AT6" s="109"/>
-      <c r="AU6" s="110"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="133"/>
+      <c r="AH6" s="133"/>
+      <c r="AI6" s="133"/>
+      <c r="AJ6" s="133"/>
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133"/>
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="133"/>
+      <c r="AS6" s="133"/>
+      <c r="AT6" s="133"/>
+      <c r="AU6" s="134"/>
     </row>
     <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="21"/>
@@ -3354,32 +3314,32 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="96" t="s">
+      <c r="Z7" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="62" t="s">
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="192"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="106"/>
-      <c r="AI7" s="106"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="106"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="106"/>
-      <c r="AO7" s="106"/>
-      <c r="AP7" s="106"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="106"/>
-      <c r="AS7" s="106"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="107"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="130"/>
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="131"/>
     </row>
     <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="43">
@@ -3405,17 +3365,17 @@
         <v>23</v>
       </c>
       <c r="J8" s="28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="29"/>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -3426,35 +3386,35 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="109"/>
-      <c r="AK8" s="109"/>
-      <c r="AL8" s="109"/>
-      <c r="AM8" s="109"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="109"/>
-      <c r="AP8" s="109"/>
-      <c r="AQ8" s="109"/>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="109"/>
-      <c r="AU8" s="110"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="133"/>
+      <c r="AH8" s="133"/>
+      <c r="AI8" s="133"/>
+      <c r="AJ8" s="133"/>
+      <c r="AK8" s="133"/>
+      <c r="AL8" s="133"/>
+      <c r="AM8" s="133"/>
+      <c r="AN8" s="133"/>
+      <c r="AO8" s="133"/>
+      <c r="AP8" s="133"/>
+      <c r="AQ8" s="133"/>
+      <c r="AR8" s="133"/>
+      <c r="AS8" s="133"/>
+      <c r="AT8" s="133"/>
+      <c r="AU8" s="134"/>
     </row>
     <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -3478,50 +3438,50 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="96" t="s">
+      <c r="Z9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="62" t="s">
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="106"/>
-      <c r="AO9" s="106"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="107"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="130"/>
+      <c r="AF9" s="130"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="130"/>
+      <c r="AJ9" s="130"/>
+      <c r="AK9" s="130"/>
+      <c r="AL9" s="130"/>
+      <c r="AM9" s="130"/>
+      <c r="AN9" s="130"/>
+      <c r="AO9" s="130"/>
+      <c r="AP9" s="130"/>
+      <c r="AQ9" s="130"/>
+      <c r="AR9" s="130"/>
+      <c r="AS9" s="130"/>
+      <c r="AT9" s="130"/>
+      <c r="AU9" s="131"/>
     </row>
     <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="183" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="184"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="185"/>
+      <c r="B10" s="199" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="201"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -3532,46 +3492,46 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="109"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="109"/>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="109"/>
-      <c r="AQ10" s="109"/>
-      <c r="AR10" s="109"/>
-      <c r="AS10" s="109"/>
-      <c r="AT10" s="109"/>
-      <c r="AU10" s="110"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="133"/>
+      <c r="AH10" s="133"/>
+      <c r="AI10" s="133"/>
+      <c r="AJ10" s="133"/>
+      <c r="AK10" s="133"/>
+      <c r="AL10" s="133"/>
+      <c r="AM10" s="133"/>
+      <c r="AN10" s="133"/>
+      <c r="AO10" s="133"/>
+      <c r="AP10" s="133"/>
+      <c r="AQ10" s="133"/>
+      <c r="AR10" s="133"/>
+      <c r="AS10" s="133"/>
+      <c r="AT10" s="133"/>
+      <c r="AU10" s="134"/>
     </row>
     <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="188" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
+      <c r="B11" s="204" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -3582,390 +3542,390 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="96" t="s">
+      <c r="Z11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="62" t="s">
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="107"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="130"/>
+      <c r="AJ11" s="130"/>
+      <c r="AK11" s="130"/>
+      <c r="AL11" s="130"/>
+      <c r="AM11" s="130"/>
+      <c r="AN11" s="130"/>
+      <c r="AO11" s="130"/>
+      <c r="AP11" s="130"/>
+      <c r="AQ11" s="130"/>
+      <c r="AR11" s="130"/>
+      <c r="AS11" s="130"/>
+      <c r="AT11" s="130"/>
+      <c r="AU11" s="131"/>
     </row>
     <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="190"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="171" t="s">
+      <c r="B12" s="206"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="172"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="173"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="188"/>
+      <c r="V12" s="188"/>
+      <c r="W12" s="189"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="108"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="110"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="132"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="133"/>
+      <c r="AH12" s="133"/>
+      <c r="AI12" s="133"/>
+      <c r="AJ12" s="133"/>
+      <c r="AK12" s="133"/>
+      <c r="AL12" s="133"/>
+      <c r="AM12" s="133"/>
+      <c r="AN12" s="133"/>
+      <c r="AO12" s="133"/>
+      <c r="AP12" s="133"/>
+      <c r="AQ12" s="133"/>
+      <c r="AR12" s="133"/>
+      <c r="AS12" s="133"/>
+      <c r="AT12" s="133"/>
+      <c r="AU12" s="134"/>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="143" t="s">
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="145"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="161"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="96" t="s">
+      <c r="Z13" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="62" t="s">
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="107"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="130"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="130"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="130"/>
+      <c r="AJ13" s="130"/>
+      <c r="AK13" s="130"/>
+      <c r="AL13" s="130"/>
+      <c r="AM13" s="130"/>
+      <c r="AN13" s="130"/>
+      <c r="AO13" s="130"/>
+      <c r="AP13" s="130"/>
+      <c r="AQ13" s="130"/>
+      <c r="AR13" s="130"/>
+      <c r="AS13" s="130"/>
+      <c r="AT13" s="130"/>
+      <c r="AU13" s="131"/>
     </row>
     <row r="14" spans="2:47" ht="34.5" customHeight="1">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="148"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="164"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="109"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="110"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="133"/>
+      <c r="AK14" s="133"/>
+      <c r="AL14" s="133"/>
+      <c r="AM14" s="133"/>
+      <c r="AN14" s="133"/>
+      <c r="AO14" s="133"/>
+      <c r="AP14" s="133"/>
+      <c r="AQ14" s="133"/>
+      <c r="AR14" s="133"/>
+      <c r="AS14" s="133"/>
+      <c r="AT14" s="133"/>
+      <c r="AU14" s="134"/>
     </row>
     <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="174" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="176"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="191"/>
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="V15" s="191"/>
+      <c r="W15" s="192"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="62" t="s">
+      <c r="Z15" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC15" s="105"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="106"/>
-      <c r="AL15" s="106"/>
-      <c r="AM15" s="106"/>
-      <c r="AN15" s="106"/>
-      <c r="AO15" s="106"/>
-      <c r="AP15" s="106"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="106"/>
-      <c r="AS15" s="106"/>
-      <c r="AT15" s="106"/>
-      <c r="AU15" s="107"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="130"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="130"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="130"/>
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="130"/>
+      <c r="AP15" s="130"/>
+      <c r="AQ15" s="130"/>
+      <c r="AR15" s="130"/>
+      <c r="AS15" s="130"/>
+      <c r="AT15" s="130"/>
+      <c r="AU15" s="131"/>
     </row>
     <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="177" t="s">
+      <c r="C16" s="158"/>
+      <c r="D16" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="155"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="157"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="173"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="109"/>
-      <c r="AE16" s="109"/>
-      <c r="AF16" s="109"/>
-      <c r="AG16" s="109"/>
-      <c r="AH16" s="109"/>
-      <c r="AI16" s="109"/>
-      <c r="AJ16" s="109"/>
-      <c r="AK16" s="109"/>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="109"/>
-      <c r="AR16" s="109"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="110"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="133"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="133"/>
+      <c r="AJ16" s="133"/>
+      <c r="AK16" s="133"/>
+      <c r="AL16" s="133"/>
+      <c r="AM16" s="133"/>
+      <c r="AN16" s="133"/>
+      <c r="AO16" s="133"/>
+      <c r="AP16" s="133"/>
+      <c r="AQ16" s="133"/>
+      <c r="AR16" s="133"/>
+      <c r="AS16" s="133"/>
+      <c r="AT16" s="133"/>
+      <c r="AU16" s="134"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="149"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="159"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="159"/>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="160"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="166"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="176"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="165"/>
-      <c r="AC17" s="105"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="106"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="106"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="106"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="106"/>
-      <c r="AS17" s="106"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="107"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="130"/>
+      <c r="AP17" s="130"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="130"/>
+      <c r="AS17" s="130"/>
+      <c r="AT17" s="130"/>
+      <c r="AU17" s="131"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="163"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="178"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="179"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="202"/>
-      <c r="AC18" s="193"/>
-      <c r="AD18" s="194"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="194"/>
-      <c r="AG18" s="194"/>
-      <c r="AH18" s="194"/>
-      <c r="AI18" s="194"/>
-      <c r="AJ18" s="194"/>
-      <c r="AK18" s="194"/>
-      <c r="AL18" s="194"/>
-      <c r="AM18" s="194"/>
-      <c r="AN18" s="194"/>
-      <c r="AO18" s="194"/>
-      <c r="AP18" s="194"/>
-      <c r="AQ18" s="194"/>
-      <c r="AR18" s="194"/>
-      <c r="AS18" s="194"/>
-      <c r="AT18" s="194"/>
-      <c r="AU18" s="195"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="225"/>
+      <c r="AC18" s="209"/>
+      <c r="AD18" s="210"/>
+      <c r="AE18" s="210"/>
+      <c r="AF18" s="210"/>
+      <c r="AG18" s="210"/>
+      <c r="AH18" s="210"/>
+      <c r="AI18" s="210"/>
+      <c r="AJ18" s="210"/>
+      <c r="AK18" s="210"/>
+      <c r="AL18" s="210"/>
+      <c r="AM18" s="210"/>
+      <c r="AN18" s="210"/>
+      <c r="AO18" s="210"/>
+      <c r="AP18" s="210"/>
+      <c r="AQ18" s="210"/>
+      <c r="AR18" s="210"/>
+      <c r="AS18" s="210"/>
+      <c r="AT18" s="210"/>
+      <c r="AU18" s="211"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="3"/>
@@ -3992,210 +3952,210 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="69" t="s">
+      <c r="Z19" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AA19" s="70"/>
+      <c r="AA19" s="88"/>
       <c r="AB19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="73" t="s">
+      <c r="AC19" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="74"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="91"/>
+      <c r="AO19" s="91"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="92"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="170" t="s">
+      <c r="E20" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="72"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="90"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC20" s="196" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD20" s="197"/>
-      <c r="AE20" s="197"/>
-      <c r="AF20" s="197"/>
-      <c r="AG20" s="197"/>
-      <c r="AH20" s="197"/>
-      <c r="AI20" s="197"/>
-      <c r="AJ20" s="197"/>
-      <c r="AK20" s="197"/>
-      <c r="AL20" s="197"/>
-      <c r="AM20" s="197"/>
-      <c r="AN20" s="197"/>
-      <c r="AO20" s="197"/>
-      <c r="AP20" s="197"/>
-      <c r="AQ20" s="197"/>
-      <c r="AR20" s="197"/>
-      <c r="AS20" s="197"/>
-      <c r="AT20" s="197"/>
-      <c r="AU20" s="198"/>
+      <c r="Z20" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="212" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20" s="213"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="213"/>
+      <c r="AH20" s="213"/>
+      <c r="AI20" s="213"/>
+      <c r="AJ20" s="213"/>
+      <c r="AK20" s="213"/>
+      <c r="AL20" s="213"/>
+      <c r="AM20" s="213"/>
+      <c r="AN20" s="213"/>
+      <c r="AO20" s="213"/>
+      <c r="AP20" s="213"/>
+      <c r="AQ20" s="213"/>
+      <c r="AR20" s="213"/>
+      <c r="AS20" s="213"/>
+      <c r="AT20" s="213"/>
+      <c r="AU20" s="214"/>
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="164" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="165"/>
-      <c r="V21" s="165"/>
-      <c r="W21" s="166"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="181"/>
+      <c r="S21" s="181"/>
+      <c r="T21" s="181"/>
+      <c r="U21" s="181"/>
+      <c r="V21" s="181"/>
+      <c r="W21" s="182"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="199"/>
-      <c r="AD21" s="200"/>
-      <c r="AE21" s="200"/>
-      <c r="AF21" s="200"/>
-      <c r="AG21" s="200"/>
-      <c r="AH21" s="200"/>
-      <c r="AI21" s="200"/>
-      <c r="AJ21" s="200"/>
-      <c r="AK21" s="200"/>
-      <c r="AL21" s="200"/>
-      <c r="AM21" s="200"/>
-      <c r="AN21" s="200"/>
-      <c r="AO21" s="200"/>
-      <c r="AP21" s="200"/>
-      <c r="AQ21" s="200"/>
-      <c r="AR21" s="200"/>
-      <c r="AS21" s="200"/>
-      <c r="AT21" s="200"/>
-      <c r="AU21" s="201"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="215"/>
+      <c r="AD21" s="216"/>
+      <c r="AE21" s="216"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="216"/>
+      <c r="AH21" s="216"/>
+      <c r="AI21" s="216"/>
+      <c r="AJ21" s="216"/>
+      <c r="AK21" s="216"/>
+      <c r="AL21" s="216"/>
+      <c r="AM21" s="216"/>
+      <c r="AN21" s="216"/>
+      <c r="AO21" s="216"/>
+      <c r="AP21" s="216"/>
+      <c r="AQ21" s="216"/>
+      <c r="AR21" s="216"/>
+      <c r="AS21" s="216"/>
+      <c r="AT21" s="216"/>
+      <c r="AU21" s="217"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="168"/>
-      <c r="Q22" s="168"/>
-      <c r="R22" s="168"/>
-      <c r="S22" s="168"/>
-      <c r="T22" s="168"/>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
-      <c r="W22" s="169"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="185"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
-      <c r="Z22" s="96" t="s">
+      <c r="Z22" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" s="121"/>
+      <c r="AB22" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC22" s="196" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD22" s="197"/>
-      <c r="AE22" s="197"/>
-      <c r="AF22" s="197"/>
-      <c r="AG22" s="197"/>
-      <c r="AH22" s="197"/>
-      <c r="AI22" s="197"/>
-      <c r="AJ22" s="197"/>
-      <c r="AK22" s="197"/>
-      <c r="AL22" s="197"/>
-      <c r="AM22" s="197"/>
-      <c r="AN22" s="197"/>
-      <c r="AO22" s="197"/>
-      <c r="AP22" s="197"/>
-      <c r="AQ22" s="197"/>
-      <c r="AR22" s="197"/>
-      <c r="AS22" s="197"/>
-      <c r="AT22" s="197"/>
-      <c r="AU22" s="198"/>
+      <c r="AD22" s="213"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="213"/>
+      <c r="AH22" s="213"/>
+      <c r="AI22" s="213"/>
+      <c r="AJ22" s="213"/>
+      <c r="AK22" s="213"/>
+      <c r="AL22" s="213"/>
+      <c r="AM22" s="213"/>
+      <c r="AN22" s="213"/>
+      <c r="AO22" s="213"/>
+      <c r="AP22" s="213"/>
+      <c r="AQ22" s="213"/>
+      <c r="AR22" s="213"/>
+      <c r="AS22" s="213"/>
+      <c r="AT22" s="213"/>
+      <c r="AU22" s="214"/>
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="45"/>
-      <c r="B23" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="126" t="s">
-        <v>34</v>
+      <c r="B23" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="153"/>
+      <c r="D23" s="144" t="s">
+        <v>32</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
@@ -4217,34 +4177,34 @@
       <c r="W23" s="48"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="199"/>
-      <c r="AD23" s="200"/>
-      <c r="AE23" s="200"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="200"/>
-      <c r="AI23" s="200"/>
-      <c r="AJ23" s="200"/>
-      <c r="AK23" s="200"/>
-      <c r="AL23" s="200"/>
-      <c r="AM23" s="200"/>
-      <c r="AN23" s="200"/>
-      <c r="AO23" s="200"/>
-      <c r="AP23" s="200"/>
-      <c r="AQ23" s="200"/>
-      <c r="AR23" s="200"/>
-      <c r="AS23" s="200"/>
-      <c r="AT23" s="200"/>
-      <c r="AU23" s="201"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="215"/>
+      <c r="AD23" s="216"/>
+      <c r="AE23" s="216"/>
+      <c r="AF23" s="216"/>
+      <c r="AG23" s="216"/>
+      <c r="AH23" s="216"/>
+      <c r="AI23" s="216"/>
+      <c r="AJ23" s="216"/>
+      <c r="AK23" s="216"/>
+      <c r="AL23" s="216"/>
+      <c r="AM23" s="216"/>
+      <c r="AN23" s="216"/>
+      <c r="AO23" s="216"/>
+      <c r="AP23" s="216"/>
+      <c r="AQ23" s="216"/>
+      <c r="AR23" s="216"/>
+      <c r="AS23" s="216"/>
+      <c r="AT23" s="216"/>
+      <c r="AU23" s="217"/>
     </row>
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="45"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="127"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
@@ -4266,46 +4226,46 @@
       <c r="W24" s="51"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
-      <c r="Z24" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC24" s="196" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD24" s="197"/>
-      <c r="AE24" s="197"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="197"/>
-      <c r="AH24" s="197"/>
-      <c r="AI24" s="197"/>
-      <c r="AJ24" s="197"/>
-      <c r="AK24" s="197"/>
-      <c r="AL24" s="197"/>
-      <c r="AM24" s="197"/>
-      <c r="AN24" s="197"/>
-      <c r="AO24" s="197"/>
-      <c r="AP24" s="197"/>
-      <c r="AQ24" s="197"/>
-      <c r="AR24" s="197"/>
-      <c r="AS24" s="197"/>
-      <c r="AT24" s="197"/>
-      <c r="AU24" s="198"/>
+      <c r="Z24" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC24" s="212" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD24" s="213"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="213"/>
+      <c r="AH24" s="213"/>
+      <c r="AI24" s="213"/>
+      <c r="AJ24" s="213"/>
+      <c r="AK24" s="213"/>
+      <c r="AL24" s="213"/>
+      <c r="AM24" s="213"/>
+      <c r="AN24" s="213"/>
+      <c r="AO24" s="213"/>
+      <c r="AP24" s="213"/>
+      <c r="AQ24" s="213"/>
+      <c r="AR24" s="213"/>
+      <c r="AS24" s="213"/>
+      <c r="AT24" s="213"/>
+      <c r="AU24" s="214"/>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="45"/>
-      <c r="B25" s="132" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="126" t="s">
-        <v>36</v>
+      <c r="B25" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="144" t="s">
+        <v>34</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
@@ -4327,34 +4287,34 @@
       <c r="W25" s="48"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="99"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="199"/>
-      <c r="AD25" s="200"/>
-      <c r="AE25" s="200"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="200"/>
-      <c r="AI25" s="200"/>
-      <c r="AJ25" s="200"/>
-      <c r="AK25" s="200"/>
-      <c r="AL25" s="200"/>
-      <c r="AM25" s="200"/>
-      <c r="AN25" s="200"/>
-      <c r="AO25" s="200"/>
-      <c r="AP25" s="200"/>
-      <c r="AQ25" s="200"/>
-      <c r="AR25" s="200"/>
-      <c r="AS25" s="200"/>
-      <c r="AT25" s="200"/>
-      <c r="AU25" s="201"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="215"/>
+      <c r="AD25" s="216"/>
+      <c r="AE25" s="216"/>
+      <c r="AF25" s="216"/>
+      <c r="AG25" s="216"/>
+      <c r="AH25" s="216"/>
+      <c r="AI25" s="216"/>
+      <c r="AJ25" s="216"/>
+      <c r="AK25" s="216"/>
+      <c r="AL25" s="216"/>
+      <c r="AM25" s="216"/>
+      <c r="AN25" s="216"/>
+      <c r="AO25" s="216"/>
+      <c r="AP25" s="216"/>
+      <c r="AQ25" s="216"/>
+      <c r="AR25" s="216"/>
+      <c r="AS25" s="216"/>
+      <c r="AT25" s="216"/>
+      <c r="AU25" s="217"/>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="45"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="127"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -4376,46 +4336,46 @@
       <c r="W26" s="51"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="36"/>
-      <c r="Z26" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC26" s="196" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD26" s="197"/>
-      <c r="AE26" s="197"/>
-      <c r="AF26" s="197"/>
-      <c r="AG26" s="197"/>
-      <c r="AH26" s="197"/>
-      <c r="AI26" s="197"/>
-      <c r="AJ26" s="197"/>
-      <c r="AK26" s="197"/>
-      <c r="AL26" s="197"/>
-      <c r="AM26" s="197"/>
-      <c r="AN26" s="197"/>
-      <c r="AO26" s="197"/>
-      <c r="AP26" s="197"/>
-      <c r="AQ26" s="197"/>
-      <c r="AR26" s="197"/>
-      <c r="AS26" s="197"/>
-      <c r="AT26" s="197"/>
-      <c r="AU26" s="198"/>
+      <c r="Z26" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA26" s="121"/>
+      <c r="AB26" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC26" s="212" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD26" s="213"/>
+      <c r="AE26" s="213"/>
+      <c r="AF26" s="213"/>
+      <c r="AG26" s="213"/>
+      <c r="AH26" s="213"/>
+      <c r="AI26" s="213"/>
+      <c r="AJ26" s="213"/>
+      <c r="AK26" s="213"/>
+      <c r="AL26" s="213"/>
+      <c r="AM26" s="213"/>
+      <c r="AN26" s="213"/>
+      <c r="AO26" s="213"/>
+      <c r="AP26" s="213"/>
+      <c r="AQ26" s="213"/>
+      <c r="AR26" s="213"/>
+      <c r="AS26" s="213"/>
+      <c r="AT26" s="213"/>
+      <c r="AU26" s="214"/>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="45"/>
-      <c r="B27" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="128" t="s">
-        <v>4</v>
+      <c r="B27" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="153"/>
+      <c r="D27" s="144" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
@@ -4437,34 +4397,34 @@
       <c r="W27" s="48"/>
       <c r="X27" s="36"/>
       <c r="Y27" s="36"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="99"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="199"/>
-      <c r="AD27" s="200"/>
-      <c r="AE27" s="200"/>
-      <c r="AF27" s="200"/>
-      <c r="AG27" s="200"/>
-      <c r="AH27" s="200"/>
-      <c r="AI27" s="200"/>
-      <c r="AJ27" s="200"/>
-      <c r="AK27" s="200"/>
-      <c r="AL27" s="200"/>
-      <c r="AM27" s="200"/>
-      <c r="AN27" s="200"/>
-      <c r="AO27" s="200"/>
-      <c r="AP27" s="200"/>
-      <c r="AQ27" s="200"/>
-      <c r="AR27" s="200"/>
-      <c r="AS27" s="200"/>
-      <c r="AT27" s="200"/>
-      <c r="AU27" s="201"/>
+      <c r="Z27" s="122"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="215"/>
+      <c r="AD27" s="216"/>
+      <c r="AE27" s="216"/>
+      <c r="AF27" s="216"/>
+      <c r="AG27" s="216"/>
+      <c r="AH27" s="216"/>
+      <c r="AI27" s="216"/>
+      <c r="AJ27" s="216"/>
+      <c r="AK27" s="216"/>
+      <c r="AL27" s="216"/>
+      <c r="AM27" s="216"/>
+      <c r="AN27" s="216"/>
+      <c r="AO27" s="216"/>
+      <c r="AP27" s="216"/>
+      <c r="AQ27" s="216"/>
+      <c r="AR27" s="216"/>
+      <c r="AS27" s="216"/>
+      <c r="AT27" s="216"/>
+      <c r="AU27" s="217"/>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="45"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="129"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="49"/>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
@@ -4486,44 +4446,46 @@
       <c r="W28" s="51"/>
       <c r="X28" s="36"/>
       <c r="Y28" s="36"/>
-      <c r="Z28" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC28" s="196" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD28" s="197"/>
-      <c r="AE28" s="197"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="197"/>
-      <c r="AH28" s="197"/>
-      <c r="AI28" s="197"/>
-      <c r="AJ28" s="197"/>
-      <c r="AK28" s="197"/>
-      <c r="AL28" s="197"/>
-      <c r="AM28" s="197"/>
-      <c r="AN28" s="197"/>
-      <c r="AO28" s="197"/>
-      <c r="AP28" s="197"/>
-      <c r="AQ28" s="197"/>
-      <c r="AR28" s="197"/>
-      <c r="AS28" s="197"/>
-      <c r="AT28" s="197"/>
-      <c r="AU28" s="198"/>
+      <c r="Z28" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="212" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD28" s="213"/>
+      <c r="AE28" s="213"/>
+      <c r="AF28" s="213"/>
+      <c r="AG28" s="213"/>
+      <c r="AH28" s="213"/>
+      <c r="AI28" s="213"/>
+      <c r="AJ28" s="213"/>
+      <c r="AK28" s="213"/>
+      <c r="AL28" s="213"/>
+      <c r="AM28" s="213"/>
+      <c r="AN28" s="213"/>
+      <c r="AO28" s="213"/>
+      <c r="AP28" s="213"/>
+      <c r="AQ28" s="213"/>
+      <c r="AR28" s="213"/>
+      <c r="AS28" s="213"/>
+      <c r="AT28" s="213"/>
+      <c r="AU28" s="214"/>
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="45"/>
-      <c r="B29" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="128"/>
+      <c r="B29" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="153"/>
+      <c r="D29" s="144" t="s">
+        <v>69</v>
+      </c>
       <c r="E29" s="46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
@@ -4545,34 +4507,34 @@
       <c r="W29" s="48"/>
       <c r="X29" s="36"/>
       <c r="Y29" s="36"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="199"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="200"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="200"/>
-      <c r="AJ29" s="200"/>
-      <c r="AK29" s="200"/>
-      <c r="AL29" s="200"/>
-      <c r="AM29" s="200"/>
-      <c r="AN29" s="200"/>
-      <c r="AO29" s="200"/>
-      <c r="AP29" s="200"/>
-      <c r="AQ29" s="200"/>
-      <c r="AR29" s="200"/>
-      <c r="AS29" s="200"/>
-      <c r="AT29" s="200"/>
-      <c r="AU29" s="201"/>
+      <c r="Z29" s="122"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="215"/>
+      <c r="AD29" s="216"/>
+      <c r="AE29" s="216"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="216"/>
+      <c r="AH29" s="216"/>
+      <c r="AI29" s="216"/>
+      <c r="AJ29" s="216"/>
+      <c r="AK29" s="216"/>
+      <c r="AL29" s="216"/>
+      <c r="AM29" s="216"/>
+      <c r="AN29" s="216"/>
+      <c r="AO29" s="216"/>
+      <c r="AP29" s="216"/>
+      <c r="AQ29" s="216"/>
+      <c r="AR29" s="216"/>
+      <c r="AS29" s="216"/>
+      <c r="AT29" s="216"/>
+      <c r="AU29" s="217"/>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="45"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="135"/>
-      <c r="D30" s="129"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
@@ -4594,46 +4556,46 @@
       <c r="W30" s="51"/>
       <c r="X30" s="36"/>
       <c r="Y30" s="36"/>
-      <c r="Z30" s="96" t="s">
+      <c r="Z30" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="62" t="s">
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="78"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="78"/>
-      <c r="AO30" s="78"/>
-      <c r="AP30" s="78"/>
-      <c r="AQ30" s="78"/>
-      <c r="AR30" s="78"/>
-      <c r="AS30" s="78"/>
-      <c r="AT30" s="78"/>
-      <c r="AU30" s="79"/>
+      <c r="AC30" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+      <c r="AI30" s="96"/>
+      <c r="AJ30" s="96"/>
+      <c r="AK30" s="96"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="96"/>
+      <c r="AN30" s="96"/>
+      <c r="AO30" s="96"/>
+      <c r="AP30" s="96"/>
+      <c r="AQ30" s="96"/>
+      <c r="AR30" s="96"/>
+      <c r="AS30" s="96"/>
+      <c r="AT30" s="96"/>
+      <c r="AU30" s="97"/>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="45"/>
-      <c r="B31" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="126" t="s">
-        <v>34</v>
+      <c r="B31" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="153"/>
+      <c r="D31" s="144" t="s">
+        <v>32</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
@@ -4655,34 +4617,34 @@
       <c r="W31" s="48"/>
       <c r="X31" s="36"/>
       <c r="Y31" s="36"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="81"/>
-      <c r="AP31" s="81"/>
-      <c r="AQ31" s="81"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="81"/>
-      <c r="AT31" s="81"/>
-      <c r="AU31" s="82"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="99"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="99"/>
+      <c r="AJ31" s="99"/>
+      <c r="AK31" s="99"/>
+      <c r="AL31" s="99"/>
+      <c r="AM31" s="99"/>
+      <c r="AN31" s="99"/>
+      <c r="AO31" s="99"/>
+      <c r="AP31" s="99"/>
+      <c r="AQ31" s="99"/>
+      <c r="AR31" s="99"/>
+      <c r="AS31" s="99"/>
+      <c r="AT31" s="99"/>
+      <c r="AU31" s="100"/>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="45"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="127"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
@@ -4729,122 +4691,114 @@
     </row>
     <row r="33" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="45"/>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="126" t="s">
+      <c r="C33" s="153"/>
+      <c r="D33" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="114"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="114"/>
+      <c r="T33" s="114"/>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="115"/>
       <c r="X33" s="36"/>
       <c r="Y33" s="36"/>
-      <c r="Z33" s="89" t="s">
+      <c r="Z33" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AA33" s="90"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="90"/>
-      <c r="AJ33" s="90"/>
-      <c r="AK33" s="90"/>
-      <c r="AL33" s="90"/>
-      <c r="AM33" s="90"/>
-      <c r="AN33" s="90"/>
-      <c r="AO33" s="90"/>
-      <c r="AP33" s="90"/>
-      <c r="AQ33" s="90"/>
-      <c r="AR33" s="90"/>
-      <c r="AS33" s="90"/>
-      <c r="AT33" s="90"/>
-      <c r="AU33" s="91"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="108"/>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="108"/>
+      <c r="AL33" s="108"/>
+      <c r="AM33" s="108"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="108"/>
+      <c r="AP33" s="108"/>
+      <c r="AQ33" s="108"/>
+      <c r="AR33" s="108"/>
+      <c r="AS33" s="108"/>
+      <c r="AT33" s="108"/>
+      <c r="AU33" s="109"/>
     </row>
     <row r="34" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="45"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="115"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="116"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="118"/>
       <c r="X34" s="36"/>
       <c r="Y34" s="36"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="84"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="84"/>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="84"/>
-      <c r="AO34" s="84"/>
-      <c r="AP34" s="84"/>
-      <c r="AQ34" s="84"/>
-      <c r="AR34" s="84"/>
-      <c r="AS34" s="84"/>
-      <c r="AT34" s="84"/>
-      <c r="AU34" s="85"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="102"/>
+      <c r="AB34" s="102"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="102"/>
+      <c r="AE34" s="102"/>
+      <c r="AF34" s="102"/>
+      <c r="AG34" s="102"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="102"/>
+      <c r="AJ34" s="102"/>
+      <c r="AK34" s="102"/>
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="102"/>
+      <c r="AN34" s="102"/>
+      <c r="AO34" s="102"/>
+      <c r="AP34" s="102"/>
+      <c r="AQ34" s="102"/>
+      <c r="AR34" s="102"/>
+      <c r="AS34" s="102"/>
+      <c r="AT34" s="102"/>
+      <c r="AU34" s="103"/>
     </row>
     <row r="35" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="45"/>
-      <c r="B35" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>69</v>
-      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
       <c r="H35" s="47"/>
@@ -4865,34 +4819,34 @@
       <c r="W35" s="48"/>
       <c r="X35" s="36"/>
       <c r="Y35" s="36"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
-      <c r="AH35" s="87"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="87"/>
-      <c r="AM35" s="87"/>
-      <c r="AN35" s="87"/>
-      <c r="AO35" s="87"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="87"/>
-      <c r="AU35" s="88"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="105"/>
+      <c r="AB35" s="105"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="105"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="105"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="105"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="106"/>
     </row>
     <row r="36" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="45"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="127"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="49"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
@@ -4939,125 +4893,121 @@
     </row>
     <row r="37" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="45"/>
-      <c r="B37" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="133"/>
-      <c r="D37" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="48"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="115"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="36"/>
-      <c r="Z37" s="92" t="s">
+      <c r="Z37" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="93"/>
-      <c r="AI37" s="93"/>
-      <c r="AJ37" s="93"/>
-      <c r="AK37" s="93"/>
-      <c r="AL37" s="93"/>
-      <c r="AM37" s="93" t="s">
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="111"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="111"/>
+      <c r="AE37" s="111"/>
+      <c r="AF37" s="111"/>
+      <c r="AG37" s="111"/>
+      <c r="AH37" s="111"/>
+      <c r="AI37" s="111"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="111"/>
+      <c r="AL37" s="111"/>
+      <c r="AM37" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="AN37" s="93"/>
-      <c r="AO37" s="93"/>
-      <c r="AP37" s="93"/>
-      <c r="AQ37" s="93"/>
-      <c r="AR37" s="93"/>
-      <c r="AS37" s="93"/>
-      <c r="AT37" s="93"/>
-      <c r="AU37" s="94"/>
+      <c r="AN37" s="111"/>
+      <c r="AO37" s="111"/>
+      <c r="AP37" s="111"/>
+      <c r="AQ37" s="111"/>
+      <c r="AR37" s="111"/>
+      <c r="AS37" s="111"/>
+      <c r="AT37" s="111"/>
+      <c r="AU37" s="112"/>
     </row>
     <row r="38" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="45"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="51"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="118"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
-      <c r="Z38" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="84"/>
-      <c r="AE38" s="84"/>
-      <c r="AF38" s="84"/>
-      <c r="AG38" s="84"/>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="84"/>
-      <c r="AK38" s="84"/>
-      <c r="AL38" s="84"/>
-      <c r="AM38" s="84"/>
-      <c r="AN38" s="84"/>
-      <c r="AO38" s="84"/>
-      <c r="AP38" s="84"/>
-      <c r="AQ38" s="84"/>
-      <c r="AR38" s="84"/>
-      <c r="AS38" s="84"/>
-      <c r="AT38" s="84"/>
-      <c r="AU38" s="85"/>
+      <c r="Z38" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA38" s="102"/>
+      <c r="AB38" s="102"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="102"/>
+      <c r="AE38" s="102"/>
+      <c r="AF38" s="102"/>
+      <c r="AG38" s="102"/>
+      <c r="AH38" s="102"/>
+      <c r="AI38" s="102"/>
+      <c r="AJ38" s="102"/>
+      <c r="AK38" s="102"/>
+      <c r="AL38" s="102"/>
+      <c r="AM38" s="102"/>
+      <c r="AN38" s="102"/>
+      <c r="AO38" s="102"/>
+      <c r="AP38" s="102"/>
+      <c r="AQ38" s="102"/>
+      <c r="AR38" s="102"/>
+      <c r="AS38" s="102"/>
+      <c r="AT38" s="102"/>
+      <c r="AU38" s="103"/>
     </row>
     <row r="39" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="45"/>
-      <c r="B39" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="137"/>
-      <c r="D39" s="130" t="s">
-        <v>43</v>
+      <c r="B39" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="153"/>
+      <c r="D39" s="144" t="s">
+        <v>38</v>
       </c>
       <c r="E39" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
@@ -5079,34 +5029,34 @@
       <c r="W39" s="48"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="86"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="87"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="87"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="87"/>
-      <c r="AM39" s="87"/>
-      <c r="AN39" s="87"/>
-      <c r="AO39" s="87"/>
-      <c r="AP39" s="87"/>
-      <c r="AQ39" s="87"/>
-      <c r="AR39" s="87"/>
-      <c r="AS39" s="87"/>
-      <c r="AT39" s="87"/>
-      <c r="AU39" s="88"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="105"/>
+      <c r="AB39" s="105"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="105"/>
+      <c r="AE39" s="105"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="105"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="105"/>
+      <c r="AJ39" s="105"/>
+      <c r="AK39" s="105"/>
+      <c r="AL39" s="105"/>
+      <c r="AM39" s="105"/>
+      <c r="AN39" s="105"/>
+      <c r="AO39" s="105"/>
+      <c r="AP39" s="105"/>
+      <c r="AQ39" s="105"/>
+      <c r="AR39" s="105"/>
+      <c r="AS39" s="105"/>
+      <c r="AT39" s="105"/>
+      <c r="AU39" s="106"/>
     </row>
     <row r="40" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="45"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="131"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="49"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
@@ -5152,608 +5102,622 @@
       <c r="AU40" s="8"/>
     </row>
     <row r="41" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B41" s="120"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="106"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="107"/>
+      <c r="B41" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="153"/>
+      <c r="D41" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="48"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="117" t="s">
+      <c r="Z41" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="AA41" s="118"/>
-      <c r="AB41" s="118"/>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="118"/>
-      <c r="AF41" s="118"/>
-      <c r="AG41" s="118"/>
-      <c r="AH41" s="118"/>
-      <c r="AI41" s="118"/>
-      <c r="AJ41" s="118"/>
-      <c r="AK41" s="118"/>
-      <c r="AL41" s="118"/>
-      <c r="AM41" s="118"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="118"/>
-      <c r="AP41" s="118"/>
-      <c r="AQ41" s="118"/>
-      <c r="AR41" s="118"/>
-      <c r="AS41" s="118"/>
-      <c r="AT41" s="118"/>
-      <c r="AU41" s="119"/>
+      <c r="AA41" s="136"/>
+      <c r="AB41" s="136"/>
+      <c r="AC41" s="136"/>
+      <c r="AD41" s="136"/>
+      <c r="AE41" s="136"/>
+      <c r="AF41" s="136"/>
+      <c r="AG41" s="136"/>
+      <c r="AH41" s="136"/>
+      <c r="AI41" s="136"/>
+      <c r="AJ41" s="136"/>
+      <c r="AK41" s="136"/>
+      <c r="AL41" s="136"/>
+      <c r="AM41" s="136"/>
+      <c r="AN41" s="136"/>
+      <c r="AO41" s="136"/>
+      <c r="AP41" s="136"/>
+      <c r="AQ41" s="136"/>
+      <c r="AR41" s="136"/>
+      <c r="AS41" s="136"/>
+      <c r="AT41" s="136"/>
+      <c r="AU41" s="137"/>
     </row>
     <row r="42" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="122"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="109"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="109"/>
-      <c r="W42" s="110"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="51"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="203" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA42" s="204"/>
-      <c r="AB42" s="204"/>
-      <c r="AC42" s="204"/>
-      <c r="AD42" s="204"/>
-      <c r="AE42" s="204"/>
-      <c r="AF42" s="204"/>
-      <c r="AG42" s="204"/>
-      <c r="AH42" s="204"/>
-      <c r="AI42" s="204"/>
-      <c r="AJ42" s="204"/>
-      <c r="AK42" s="204"/>
-      <c r="AL42" s="204"/>
-      <c r="AM42" s="204"/>
-      <c r="AN42" s="204"/>
-      <c r="AO42" s="204"/>
-      <c r="AP42" s="204"/>
-      <c r="AQ42" s="204"/>
-      <c r="AR42" s="204"/>
-      <c r="AS42" s="204"/>
-      <c r="AT42" s="204"/>
-      <c r="AU42" s="205"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="63"/>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="63"/>
+      <c r="AN42" s="63"/>
+      <c r="AO42" s="63"/>
+      <c r="AP42" s="63"/>
+      <c r="AQ42" s="63"/>
+      <c r="AR42" s="63"/>
+      <c r="AS42" s="63"/>
+      <c r="AT42" s="63"/>
+      <c r="AU42" s="64"/>
     </row>
     <row r="43" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="120"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="106"/>
-      <c r="S43" s="106"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="107"/>
+      <c r="B43" s="148" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="149"/>
+      <c r="D43" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="48"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="206"/>
-      <c r="AA43" s="207"/>
-      <c r="AB43" s="207"/>
-      <c r="AC43" s="207"/>
-      <c r="AD43" s="207"/>
-      <c r="AE43" s="207"/>
-      <c r="AF43" s="207"/>
-      <c r="AG43" s="207"/>
-      <c r="AH43" s="207"/>
-      <c r="AI43" s="207"/>
-      <c r="AJ43" s="207"/>
-      <c r="AK43" s="207"/>
-      <c r="AL43" s="207"/>
-      <c r="AM43" s="207"/>
-      <c r="AN43" s="207"/>
-      <c r="AO43" s="207"/>
-      <c r="AP43" s="207"/>
-      <c r="AQ43" s="207"/>
-      <c r="AR43" s="207"/>
-      <c r="AS43" s="207"/>
-      <c r="AT43" s="207"/>
-      <c r="AU43" s="208"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="66"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="67"/>
     </row>
     <row r="44" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="122"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="109"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="109"/>
-      <c r="M44" s="109"/>
-      <c r="N44" s="109"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="109"/>
-      <c r="W44" s="110"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="51"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="206"/>
-      <c r="AA44" s="207"/>
-      <c r="AB44" s="207"/>
-      <c r="AC44" s="207"/>
-      <c r="AD44" s="207"/>
-      <c r="AE44" s="207"/>
-      <c r="AF44" s="207"/>
-      <c r="AG44" s="207"/>
-      <c r="AH44" s="207"/>
-      <c r="AI44" s="207"/>
-      <c r="AJ44" s="207"/>
-      <c r="AK44" s="207"/>
-      <c r="AL44" s="207"/>
-      <c r="AM44" s="207"/>
-      <c r="AN44" s="207"/>
-      <c r="AO44" s="207"/>
-      <c r="AP44" s="207"/>
-      <c r="AQ44" s="207"/>
-      <c r="AR44" s="207"/>
-      <c r="AS44" s="207"/>
-      <c r="AT44" s="207"/>
-      <c r="AU44" s="208"/>
+      <c r="Z44" s="65"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="AD44" s="66"/>
+      <c r="AE44" s="66"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="66"/>
+      <c r="AL44" s="66"/>
+      <c r="AM44" s="66"/>
+      <c r="AN44" s="66"/>
+      <c r="AO44" s="66"/>
+      <c r="AP44" s="66"/>
+      <c r="AQ44" s="66"/>
+      <c r="AR44" s="66"/>
+      <c r="AS44" s="66"/>
+      <c r="AT44" s="66"/>
+      <c r="AU44" s="67"/>
     </row>
     <row r="45" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="120"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
-      <c r="W45" s="107"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="218" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="48"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="206"/>
-      <c r="AA45" s="207"/>
-      <c r="AB45" s="207"/>
-      <c r="AC45" s="207"/>
-      <c r="AD45" s="207"/>
-      <c r="AE45" s="207"/>
-      <c r="AF45" s="207"/>
-      <c r="AG45" s="207"/>
-      <c r="AH45" s="207"/>
-      <c r="AI45" s="207"/>
-      <c r="AJ45" s="207"/>
-      <c r="AK45" s="207"/>
-      <c r="AL45" s="207"/>
-      <c r="AM45" s="207"/>
-      <c r="AN45" s="207"/>
-      <c r="AO45" s="207"/>
-      <c r="AP45" s="207"/>
-      <c r="AQ45" s="207"/>
-      <c r="AR45" s="207"/>
-      <c r="AS45" s="207"/>
-      <c r="AT45" s="207"/>
-      <c r="AU45" s="208"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="66"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="66"/>
+      <c r="AP45" s="66"/>
+      <c r="AQ45" s="66"/>
+      <c r="AR45" s="66"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="67"/>
     </row>
     <row r="46" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="122"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="109"/>
-      <c r="W46" s="110"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="50"/>
+      <c r="V46" s="50"/>
+      <c r="W46" s="51"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="206"/>
-      <c r="AA46" s="207"/>
-      <c r="AB46" s="207"/>
-      <c r="AC46" s="207"/>
-      <c r="AD46" s="207"/>
-      <c r="AE46" s="207"/>
-      <c r="AF46" s="207"/>
-      <c r="AG46" s="207"/>
-      <c r="AH46" s="207"/>
-      <c r="AI46" s="207"/>
-      <c r="AJ46" s="207"/>
-      <c r="AK46" s="207"/>
-      <c r="AL46" s="207"/>
-      <c r="AM46" s="207"/>
-      <c r="AN46" s="207"/>
-      <c r="AO46" s="207"/>
-      <c r="AP46" s="207"/>
-      <c r="AQ46" s="207"/>
-      <c r="AR46" s="207"/>
-      <c r="AS46" s="207"/>
-      <c r="AT46" s="207"/>
-      <c r="AU46" s="208"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="66"/>
+      <c r="AC46" s="66"/>
+      <c r="AD46" s="66"/>
+      <c r="AE46" s="66"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="66"/>
+      <c r="AL46" s="66"/>
+      <c r="AM46" s="66"/>
+      <c r="AN46" s="66"/>
+      <c r="AO46" s="66"/>
+      <c r="AP46" s="66"/>
+      <c r="AQ46" s="66"/>
+      <c r="AR46" s="66"/>
+      <c r="AS46" s="66"/>
+      <c r="AT46" s="66"/>
+      <c r="AU46" s="67"/>
     </row>
     <row r="47" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="120"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
-      <c r="W47" s="107"/>
+      <c r="B47" s="138"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="219" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
+      <c r="K47" s="220"/>
+      <c r="L47" s="220"/>
+      <c r="M47" s="220"/>
+      <c r="N47" s="220"/>
+      <c r="O47" s="220"/>
+      <c r="P47" s="220"/>
+      <c r="Q47" s="220"/>
+      <c r="R47" s="220"/>
+      <c r="S47" s="220"/>
+      <c r="T47" s="220"/>
+      <c r="U47" s="220"/>
+      <c r="V47" s="220"/>
+      <c r="W47" s="221"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="206"/>
-      <c r="AA47" s="207"/>
-      <c r="AB47" s="207"/>
-      <c r="AC47" s="207"/>
-      <c r="AD47" s="207"/>
-      <c r="AE47" s="207"/>
-      <c r="AF47" s="207"/>
-      <c r="AG47" s="207"/>
-      <c r="AH47" s="207"/>
-      <c r="AI47" s="207"/>
-      <c r="AJ47" s="207"/>
-      <c r="AK47" s="207"/>
-      <c r="AL47" s="207"/>
-      <c r="AM47" s="207"/>
-      <c r="AN47" s="207"/>
-      <c r="AO47" s="207"/>
-      <c r="AP47" s="207"/>
-      <c r="AQ47" s="207"/>
-      <c r="AR47" s="207"/>
-      <c r="AS47" s="207"/>
-      <c r="AT47" s="207"/>
-      <c r="AU47" s="208"/>
+      <c r="Z47" s="65"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="66"/>
+      <c r="AC47" s="66"/>
+      <c r="AD47" s="66"/>
+      <c r="AE47" s="66"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="66"/>
+      <c r="AL47" s="66"/>
+      <c r="AM47" s="66"/>
+      <c r="AN47" s="66"/>
+      <c r="AO47" s="66"/>
+      <c r="AP47" s="66"/>
+      <c r="AQ47" s="66"/>
+      <c r="AR47" s="66"/>
+      <c r="AS47" s="66"/>
+      <c r="AT47" s="66"/>
+      <c r="AU47" s="67"/>
     </row>
     <row r="48" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="110"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="222"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="223"/>
+      <c r="J48" s="223"/>
+      <c r="K48" s="223"/>
+      <c r="L48" s="223"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="223"/>
+      <c r="O48" s="223"/>
+      <c r="P48" s="223"/>
+      <c r="Q48" s="223"/>
+      <c r="R48" s="223"/>
+      <c r="S48" s="223"/>
+      <c r="T48" s="223"/>
+      <c r="U48" s="223"/>
+      <c r="V48" s="223"/>
+      <c r="W48" s="224"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="206"/>
-      <c r="AA48" s="207"/>
-      <c r="AB48" s="207"/>
-      <c r="AC48" s="207"/>
-      <c r="AD48" s="207"/>
-      <c r="AE48" s="207"/>
-      <c r="AF48" s="207"/>
-      <c r="AG48" s="207"/>
-      <c r="AH48" s="207"/>
-      <c r="AI48" s="207"/>
-      <c r="AJ48" s="207"/>
-      <c r="AK48" s="207"/>
-      <c r="AL48" s="207"/>
-      <c r="AM48" s="207"/>
-      <c r="AN48" s="207"/>
-      <c r="AO48" s="207"/>
-      <c r="AP48" s="207"/>
-      <c r="AQ48" s="207"/>
-      <c r="AR48" s="207"/>
-      <c r="AS48" s="207"/>
-      <c r="AT48" s="207"/>
-      <c r="AU48" s="208"/>
+      <c r="Z48" s="65"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="66"/>
+      <c r="AC48" s="66"/>
+      <c r="AD48" s="66"/>
+      <c r="AE48" s="66"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="66"/>
+      <c r="AL48" s="66"/>
+      <c r="AM48" s="66"/>
+      <c r="AN48" s="66"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="66"/>
+      <c r="AQ48" s="66"/>
+      <c r="AR48" s="66"/>
+      <c r="AS48" s="66"/>
+      <c r="AT48" s="66"/>
+      <c r="AU48" s="67"/>
     </row>
     <row r="49" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="120"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="106"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="106"/>
-      <c r="W49" s="107"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
+      <c r="U49" s="130"/>
+      <c r="V49" s="130"/>
+      <c r="W49" s="131"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="206"/>
-      <c r="AA49" s="207"/>
-      <c r="AB49" s="207"/>
-      <c r="AC49" s="207"/>
-      <c r="AD49" s="207"/>
-      <c r="AE49" s="207"/>
-      <c r="AF49" s="207"/>
-      <c r="AG49" s="207"/>
-      <c r="AH49" s="207"/>
-      <c r="AI49" s="207"/>
-      <c r="AJ49" s="207"/>
-      <c r="AK49" s="207"/>
-      <c r="AL49" s="207"/>
-      <c r="AM49" s="207"/>
-      <c r="AN49" s="207"/>
-      <c r="AO49" s="207"/>
-      <c r="AP49" s="207"/>
-      <c r="AQ49" s="207"/>
-      <c r="AR49" s="207"/>
-      <c r="AS49" s="207"/>
-      <c r="AT49" s="207"/>
-      <c r="AU49" s="208"/>
+      <c r="Z49" s="65"/>
+      <c r="AA49" s="66"/>
+      <c r="AB49" s="66"/>
+      <c r="AC49" s="66"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="66"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="66"/>
+      <c r="AL49" s="66"/>
+      <c r="AM49" s="66"/>
+      <c r="AN49" s="66"/>
+      <c r="AO49" s="66"/>
+      <c r="AP49" s="66"/>
+      <c r="AQ49" s="66"/>
+      <c r="AR49" s="66"/>
+      <c r="AS49" s="66"/>
+      <c r="AT49" s="66"/>
+      <c r="AU49" s="67"/>
     </row>
     <row r="50" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="122"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="109"/>
-      <c r="W50" s="110"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="133"/>
+      <c r="P50" s="133"/>
+      <c r="Q50" s="133"/>
+      <c r="R50" s="133"/>
+      <c r="S50" s="133"/>
+      <c r="T50" s="133"/>
+      <c r="U50" s="133"/>
+      <c r="V50" s="133"/>
+      <c r="W50" s="134"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="206"/>
-      <c r="AA50" s="207"/>
-      <c r="AB50" s="207"/>
-      <c r="AC50" s="207"/>
-      <c r="AD50" s="207"/>
-      <c r="AE50" s="207"/>
-      <c r="AF50" s="207"/>
-      <c r="AG50" s="207"/>
-      <c r="AH50" s="207"/>
-      <c r="AI50" s="207"/>
-      <c r="AJ50" s="207"/>
-      <c r="AK50" s="207"/>
-      <c r="AL50" s="207"/>
-      <c r="AM50" s="207"/>
-      <c r="AN50" s="207"/>
-      <c r="AO50" s="207"/>
-      <c r="AP50" s="207"/>
-      <c r="AQ50" s="207"/>
-      <c r="AR50" s="207"/>
-      <c r="AS50" s="207"/>
-      <c r="AT50" s="207"/>
-      <c r="AU50" s="208"/>
+      <c r="Z50" s="65"/>
+      <c r="AA50" s="66"/>
+      <c r="AB50" s="66"/>
+      <c r="AC50" s="66"/>
+      <c r="AD50" s="66"/>
+      <c r="AE50" s="66"/>
+      <c r="AF50" s="66"/>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="66"/>
+      <c r="AL50" s="66"/>
+      <c r="AM50" s="66"/>
+      <c r="AN50" s="66"/>
+      <c r="AO50" s="66"/>
+      <c r="AP50" s="66"/>
+      <c r="AQ50" s="66"/>
+      <c r="AR50" s="66"/>
+      <c r="AS50" s="66"/>
+      <c r="AT50" s="66"/>
+      <c r="AU50" s="67"/>
     </row>
     <row r="51" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="120"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="106"/>
-      <c r="P51" s="106"/>
-      <c r="Q51" s="106"/>
-      <c r="R51" s="106"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="106"/>
-      <c r="U51" s="106"/>
-      <c r="V51" s="106"/>
-      <c r="W51" s="107"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="130"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="130"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="130"/>
+      <c r="P51" s="130"/>
+      <c r="Q51" s="130"/>
+      <c r="R51" s="130"/>
+      <c r="S51" s="130"/>
+      <c r="T51" s="130"/>
+      <c r="U51" s="130"/>
+      <c r="V51" s="130"/>
+      <c r="W51" s="131"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="206"/>
-      <c r="AA51" s="207"/>
-      <c r="AB51" s="207"/>
-      <c r="AC51" s="207"/>
-      <c r="AD51" s="207"/>
-      <c r="AE51" s="207"/>
-      <c r="AF51" s="207"/>
-      <c r="AG51" s="207"/>
-      <c r="AH51" s="207"/>
-      <c r="AI51" s="207"/>
-      <c r="AJ51" s="207"/>
-      <c r="AK51" s="207"/>
-      <c r="AL51" s="207"/>
-      <c r="AM51" s="207"/>
-      <c r="AN51" s="207"/>
-      <c r="AO51" s="207"/>
-      <c r="AP51" s="207"/>
-      <c r="AQ51" s="207"/>
-      <c r="AR51" s="207"/>
-      <c r="AS51" s="207"/>
-      <c r="AT51" s="207"/>
-      <c r="AU51" s="208"/>
+      <c r="Z51" s="65"/>
+      <c r="AA51" s="66"/>
+      <c r="AB51" s="66"/>
+      <c r="AC51" s="66"/>
+      <c r="AD51" s="66"/>
+      <c r="AE51" s="66"/>
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="66"/>
+      <c r="AL51" s="66"/>
+      <c r="AM51" s="66"/>
+      <c r="AN51" s="66"/>
+      <c r="AO51" s="66"/>
+      <c r="AP51" s="66"/>
+      <c r="AQ51" s="66"/>
+      <c r="AR51" s="66"/>
+      <c r="AS51" s="66"/>
+      <c r="AT51" s="66"/>
+      <c r="AU51" s="67"/>
     </row>
     <row r="52" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B52" s="122"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="109"/>
-      <c r="O52" s="109"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
-      <c r="W52" s="110"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="133"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="133"/>
+      <c r="S52" s="133"/>
+      <c r="T52" s="133"/>
+      <c r="U52" s="133"/>
+      <c r="V52" s="133"/>
+      <c r="W52" s="134"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="209"/>
-      <c r="AA52" s="210"/>
-      <c r="AB52" s="210"/>
-      <c r="AC52" s="210"/>
-      <c r="AD52" s="210"/>
-      <c r="AE52" s="210"/>
-      <c r="AF52" s="210"/>
-      <c r="AG52" s="210"/>
-      <c r="AH52" s="210"/>
-      <c r="AI52" s="210"/>
-      <c r="AJ52" s="210"/>
-      <c r="AK52" s="210"/>
-      <c r="AL52" s="210"/>
-      <c r="AM52" s="210"/>
-      <c r="AN52" s="210"/>
-      <c r="AO52" s="210"/>
-      <c r="AP52" s="210"/>
-      <c r="AQ52" s="210"/>
-      <c r="AR52" s="210"/>
-      <c r="AS52" s="210"/>
-      <c r="AT52" s="210"/>
-      <c r="AU52" s="211"/>
+      <c r="Z52" s="68"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="69"/>
+      <c r="AC52" s="69"/>
+      <c r="AD52" s="69"/>
+      <c r="AE52" s="69"/>
+      <c r="AF52" s="69"/>
+      <c r="AG52" s="69"/>
+      <c r="AH52" s="69"/>
+      <c r="AI52" s="69"/>
+      <c r="AJ52" s="69"/>
+      <c r="AK52" s="69"/>
+      <c r="AL52" s="69"/>
+      <c r="AM52" s="69"/>
+      <c r="AN52" s="69"/>
+      <c r="AO52" s="69"/>
+      <c r="AP52" s="69"/>
+      <c r="AQ52" s="69"/>
+      <c r="AR52" s="69"/>
+      <c r="AS52" s="69"/>
+      <c r="AT52" s="69"/>
+      <c r="AU52" s="70"/>
     </row>
     <row r="53" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B53" s="120"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="106"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="106"/>
-      <c r="U53" s="106"/>
-      <c r="V53" s="106"/>
-      <c r="W53" s="107"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
+      <c r="U53" s="130"/>
+      <c r="V53" s="130"/>
+      <c r="W53" s="131"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="44"/>
@@ -5780,344 +5744,342 @@
       <c r="AU53" s="44"/>
     </row>
     <row r="54" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="122"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
-      <c r="V54" s="109"/>
-      <c r="W54" s="110"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="133"/>
+      <c r="O54" s="133"/>
+      <c r="P54" s="133"/>
+      <c r="Q54" s="133"/>
+      <c r="R54" s="133"/>
+      <c r="S54" s="133"/>
+      <c r="T54" s="133"/>
+      <c r="U54" s="133"/>
+      <c r="V54" s="133"/>
+      <c r="W54" s="134"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="102" t="s">
+      <c r="Z54" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="AA54" s="103"/>
-      <c r="AB54" s="103"/>
-      <c r="AC54" s="103"/>
-      <c r="AD54" s="103"/>
-      <c r="AE54" s="103"/>
-      <c r="AF54" s="103"/>
-      <c r="AG54" s="103"/>
-      <c r="AH54" s="103"/>
-      <c r="AI54" s="103"/>
-      <c r="AJ54" s="103"/>
-      <c r="AK54" s="103"/>
-      <c r="AL54" s="103"/>
-      <c r="AM54" s="103"/>
-      <c r="AN54" s="103"/>
-      <c r="AO54" s="103"/>
-      <c r="AP54" s="103"/>
-      <c r="AQ54" s="103"/>
-      <c r="AR54" s="103"/>
-      <c r="AS54" s="103"/>
-      <c r="AT54" s="103"/>
-      <c r="AU54" s="104"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
+      <c r="AC54" s="127"/>
+      <c r="AD54" s="127"/>
+      <c r="AE54" s="127"/>
+      <c r="AF54" s="127"/>
+      <c r="AG54" s="127"/>
+      <c r="AH54" s="127"/>
+      <c r="AI54" s="127"/>
+      <c r="AJ54" s="127"/>
+      <c r="AK54" s="127"/>
+      <c r="AL54" s="127"/>
+      <c r="AM54" s="127"/>
+      <c r="AN54" s="127"/>
+      <c r="AO54" s="127"/>
+      <c r="AP54" s="127"/>
+      <c r="AQ54" s="127"/>
+      <c r="AR54" s="127"/>
+      <c r="AS54" s="127"/>
+      <c r="AT54" s="127"/>
+      <c r="AU54" s="128"/>
     </row>
     <row r="55" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="120"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="106"/>
-      <c r="T55" s="106"/>
-      <c r="U55" s="106"/>
-      <c r="V55" s="106"/>
-      <c r="W55" s="107"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="130"/>
+      <c r="P55" s="130"/>
+      <c r="Q55" s="130"/>
+      <c r="R55" s="130"/>
+      <c r="S55" s="130"/>
+      <c r="T55" s="130"/>
+      <c r="U55" s="130"/>
+      <c r="V55" s="130"/>
+      <c r="W55" s="131"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="212" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA55" s="213"/>
-      <c r="AB55" s="213"/>
-      <c r="AC55" s="213"/>
-      <c r="AD55" s="213"/>
-      <c r="AE55" s="213"/>
-      <c r="AF55" s="213"/>
-      <c r="AG55" s="213"/>
-      <c r="AH55" s="213"/>
-      <c r="AI55" s="213"/>
-      <c r="AJ55" s="213"/>
-      <c r="AK55" s="213"/>
-      <c r="AL55" s="213"/>
-      <c r="AM55" s="213"/>
-      <c r="AN55" s="213"/>
-      <c r="AO55" s="213"/>
-      <c r="AP55" s="213"/>
-      <c r="AQ55" s="213"/>
-      <c r="AR55" s="213"/>
-      <c r="AS55" s="213"/>
-      <c r="AT55" s="213"/>
-      <c r="AU55" s="214"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="54"/>
+      <c r="AI55" s="54"/>
+      <c r="AJ55" s="54"/>
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="54"/>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="54"/>
+      <c r="AO55" s="54"/>
+      <c r="AP55" s="54"/>
+      <c r="AQ55" s="54"/>
+      <c r="AR55" s="54"/>
+      <c r="AS55" s="54"/>
+      <c r="AT55" s="54"/>
+      <c r="AU55" s="55"/>
     </row>
     <row r="56" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="122"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
-      <c r="V56" s="109"/>
-      <c r="W56" s="110"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="133"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="133"/>
+      <c r="Q56" s="133"/>
+      <c r="R56" s="133"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="133"/>
+      <c r="V56" s="133"/>
+      <c r="W56" s="134"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="215"/>
-      <c r="AA56" s="216"/>
-      <c r="AB56" s="216"/>
-      <c r="AC56" s="216"/>
-      <c r="AD56" s="216"/>
-      <c r="AE56" s="216"/>
-      <c r="AF56" s="216"/>
-      <c r="AG56" s="216"/>
-      <c r="AH56" s="216"/>
-      <c r="AI56" s="216"/>
-      <c r="AJ56" s="216"/>
-      <c r="AK56" s="216"/>
-      <c r="AL56" s="216"/>
-      <c r="AM56" s="216"/>
-      <c r="AN56" s="216"/>
-      <c r="AO56" s="216"/>
-      <c r="AP56" s="216"/>
-      <c r="AQ56" s="216"/>
-      <c r="AR56" s="216"/>
-      <c r="AS56" s="216"/>
-      <c r="AT56" s="216"/>
-      <c r="AU56" s="217"/>
+      <c r="Z56" s="56"/>
+      <c r="AA56" s="57"/>
+      <c r="AB56" s="57"/>
+      <c r="AC56" s="57"/>
+      <c r="AD56" s="57"/>
+      <c r="AE56" s="57"/>
+      <c r="AF56" s="57"/>
+      <c r="AG56" s="57"/>
+      <c r="AH56" s="57"/>
+      <c r="AI56" s="57"/>
+      <c r="AJ56" s="57"/>
+      <c r="AK56" s="57"/>
+      <c r="AL56" s="57"/>
+      <c r="AM56" s="57"/>
+      <c r="AN56" s="57"/>
+      <c r="AO56" s="57"/>
+      <c r="AP56" s="57"/>
+      <c r="AQ56" s="57"/>
+      <c r="AR56" s="57"/>
+      <c r="AS56" s="57"/>
+      <c r="AT56" s="57"/>
+      <c r="AU56" s="58"/>
     </row>
     <row r="57" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="120"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="106"/>
-      <c r="P57" s="106"/>
-      <c r="Q57" s="106"/>
-      <c r="R57" s="106"/>
-      <c r="S57" s="106"/>
-      <c r="T57" s="106"/>
-      <c r="U57" s="106"/>
-      <c r="V57" s="106"/>
-      <c r="W57" s="107"/>
+      <c r="B57" s="138"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
+      <c r="R57" s="130"/>
+      <c r="S57" s="130"/>
+      <c r="T57" s="130"/>
+      <c r="U57" s="130"/>
+      <c r="V57" s="130"/>
+      <c r="W57" s="131"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="215"/>
-      <c r="AA57" s="216"/>
-      <c r="AB57" s="216"/>
-      <c r="AC57" s="216"/>
-      <c r="AD57" s="216"/>
-      <c r="AE57" s="216"/>
-      <c r="AF57" s="216"/>
-      <c r="AG57" s="216"/>
-      <c r="AH57" s="216"/>
-      <c r="AI57" s="216"/>
-      <c r="AJ57" s="216"/>
-      <c r="AK57" s="216"/>
-      <c r="AL57" s="216"/>
-      <c r="AM57" s="216"/>
-      <c r="AN57" s="216"/>
-      <c r="AO57" s="216"/>
-      <c r="AP57" s="216"/>
-      <c r="AQ57" s="216"/>
-      <c r="AR57" s="216"/>
-      <c r="AS57" s="216"/>
-      <c r="AT57" s="216"/>
-      <c r="AU57" s="217"/>
+      <c r="Z57" s="56"/>
+      <c r="AA57" s="57"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="57"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+      <c r="AG57" s="57"/>
+      <c r="AH57" s="57"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="57"/>
+      <c r="AL57" s="57"/>
+      <c r="AM57" s="57"/>
+      <c r="AN57" s="57"/>
+      <c r="AO57" s="57"/>
+      <c r="AP57" s="57"/>
+      <c r="AQ57" s="57"/>
+      <c r="AR57" s="57"/>
+      <c r="AS57" s="57"/>
+      <c r="AT57" s="57"/>
+      <c r="AU57" s="58"/>
     </row>
     <row r="58" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="122"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="109"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="109"/>
-      <c r="U58" s="109"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="110"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="133"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="133"/>
+      <c r="R58" s="133"/>
+      <c r="S58" s="133"/>
+      <c r="T58" s="133"/>
+      <c r="U58" s="133"/>
+      <c r="V58" s="133"/>
+      <c r="W58" s="134"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="215"/>
-      <c r="AA58" s="216"/>
-      <c r="AB58" s="216"/>
-      <c r="AC58" s="216"/>
-      <c r="AD58" s="216"/>
-      <c r="AE58" s="216"/>
-      <c r="AF58" s="216"/>
-      <c r="AG58" s="216"/>
-      <c r="AH58" s="216"/>
-      <c r="AI58" s="216"/>
-      <c r="AJ58" s="216"/>
-      <c r="AK58" s="216"/>
-      <c r="AL58" s="216"/>
-      <c r="AM58" s="216"/>
-      <c r="AN58" s="216"/>
-      <c r="AO58" s="216"/>
-      <c r="AP58" s="216"/>
-      <c r="AQ58" s="216"/>
-      <c r="AR58" s="216"/>
-      <c r="AS58" s="216"/>
-      <c r="AT58" s="216"/>
-      <c r="AU58" s="217"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="57"/>
+      <c r="AB58" s="57"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="57"/>
+      <c r="AE58" s="57"/>
+      <c r="AF58" s="57"/>
+      <c r="AG58" s="57"/>
+      <c r="AH58" s="57"/>
+      <c r="AI58" s="57"/>
+      <c r="AJ58" s="57"/>
+      <c r="AK58" s="57"/>
+      <c r="AL58" s="57"/>
+      <c r="AM58" s="57"/>
+      <c r="AN58" s="57"/>
+      <c r="AO58" s="57"/>
+      <c r="AP58" s="57"/>
+      <c r="AQ58" s="57"/>
+      <c r="AR58" s="57"/>
+      <c r="AS58" s="57"/>
+      <c r="AT58" s="57"/>
+      <c r="AU58" s="58"/>
     </row>
     <row r="59" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="120"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="106"/>
-      <c r="P59" s="106"/>
-      <c r="Q59" s="106"/>
-      <c r="R59" s="106"/>
-      <c r="S59" s="106"/>
-      <c r="T59" s="106"/>
-      <c r="U59" s="106"/>
-      <c r="V59" s="106"/>
-      <c r="W59" s="107"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="130"/>
+      <c r="P59" s="130"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="130"/>
+      <c r="T59" s="130"/>
+      <c r="U59" s="130"/>
+      <c r="V59" s="130"/>
+      <c r="W59" s="131"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="215"/>
-      <c r="AA59" s="216"/>
-      <c r="AB59" s="216"/>
-      <c r="AC59" s="216"/>
-      <c r="AD59" s="216"/>
-      <c r="AE59" s="216"/>
-      <c r="AF59" s="216"/>
-      <c r="AG59" s="216"/>
-      <c r="AH59" s="216"/>
-      <c r="AI59" s="216"/>
-      <c r="AJ59" s="216"/>
-      <c r="AK59" s="216"/>
-      <c r="AL59" s="216"/>
-      <c r="AM59" s="216"/>
-      <c r="AN59" s="216"/>
-      <c r="AO59" s="216"/>
-      <c r="AP59" s="216"/>
-      <c r="AQ59" s="216"/>
-      <c r="AR59" s="216"/>
-      <c r="AS59" s="216"/>
-      <c r="AT59" s="216"/>
-      <c r="AU59" s="217"/>
+      <c r="Z59" s="56"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="57"/>
+      <c r="AE59" s="57"/>
+      <c r="AF59" s="57"/>
+      <c r="AG59" s="57"/>
+      <c r="AH59" s="57"/>
+      <c r="AI59" s="57"/>
+      <c r="AJ59" s="57"/>
+      <c r="AK59" s="57"/>
+      <c r="AL59" s="57"/>
+      <c r="AM59" s="57"/>
+      <c r="AN59" s="57"/>
+      <c r="AO59" s="57"/>
+      <c r="AP59" s="57"/>
+      <c r="AQ59" s="57"/>
+      <c r="AR59" s="57"/>
+      <c r="AS59" s="57"/>
+      <c r="AT59" s="57"/>
+      <c r="AU59" s="58"/>
     </row>
     <row r="60" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B60" s="124"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="109"/>
-      <c r="O60" s="109"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="109"/>
-      <c r="T60" s="109"/>
-      <c r="U60" s="109"/>
-      <c r="V60" s="109"/>
-      <c r="W60" s="110"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="133"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="133"/>
+      <c r="Q60" s="133"/>
+      <c r="R60" s="133"/>
+      <c r="S60" s="133"/>
+      <c r="T60" s="133"/>
+      <c r="U60" s="133"/>
+      <c r="V60" s="133"/>
+      <c r="W60" s="134"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="218"/>
-      <c r="AA60" s="219"/>
-      <c r="AB60" s="219"/>
-      <c r="AC60" s="219"/>
-      <c r="AD60" s="219"/>
-      <c r="AE60" s="219"/>
-      <c r="AF60" s="219"/>
-      <c r="AG60" s="219"/>
-      <c r="AH60" s="219"/>
-      <c r="AI60" s="219"/>
-      <c r="AJ60" s="219"/>
-      <c r="AK60" s="219"/>
-      <c r="AL60" s="219"/>
-      <c r="AM60" s="219"/>
-      <c r="AN60" s="219"/>
-      <c r="AO60" s="219"/>
-      <c r="AP60" s="219"/>
-      <c r="AQ60" s="219"/>
-      <c r="AR60" s="219"/>
-      <c r="AS60" s="219"/>
-      <c r="AT60" s="219"/>
-      <c r="AU60" s="220"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="60"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="60"/>
+      <c r="AG60" s="60"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="60"/>
+      <c r="AJ60" s="60"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="60"/>
+      <c r="AM60" s="60"/>
+      <c r="AN60" s="60"/>
+      <c r="AO60" s="60"/>
+      <c r="AP60" s="60"/>
+      <c r="AQ60" s="60"/>
+      <c r="AR60" s="60"/>
+      <c r="AS60" s="60"/>
+      <c r="AT60" s="60"/>
+      <c r="AU60" s="61"/>
     </row>
     <row r="61" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="2"/>
@@ -6261,7 +6223,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" fitToWidth="2" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" fitToWidth="2" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/履歴書_李東基.xlsx
+++ b/履歴書_李東基.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\회사 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C2F78-28AF-49E2-BA66-DEACB07F93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51595AD-E9E6-44D4-9E9E-F62AC6858958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="1125" windowWidth="13725" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="645" windowWidth="15330" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t xml:space="preserve"> ふりがな</t>
   </si>
@@ -533,6 +533,30 @@
   </si>
   <si>
     <t>とうきょうと　はちおうじし　さんだまち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社トリサン　エンターテイメント開発部　一身上の都合により退職</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキカイシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1608,6 +1632,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1632,6 +1720,450 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1744,14 +2276,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1772,35 +2296,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1850,482 +2350,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2959,8 +2983,8 @@
   </sheetPr>
   <dimension ref="A1:AU61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="16.5"/>
@@ -2972,11 +2996,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="35.25">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3076,10 +3100,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="202" t="s">
+      <c r="H3" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="203"/>
+      <c r="I3" s="137"/>
       <c r="J3" s="11"/>
       <c r="K3" s="12">
         <v>9</v>
@@ -3090,10 +3114,10 @@
       <c r="M3" s="14">
         <v>10</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="52"/>
+      <c r="O3" s="179"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="39"/>
@@ -3156,54 +3180,54 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
-      <c r="Z4" s="87" t="s">
+      <c r="Z4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="AA4" s="88"/>
+      <c r="AA4" s="87"/>
       <c r="AB4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC4" s="89" t="s">
+      <c r="AC4" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="90"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="120"/>
     </row>
     <row r="5" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="208"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -3214,48 +3238,48 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="120" t="s">
+      <c r="Z5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="80" t="s">
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="130"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="130"/>
-      <c r="AL5" s="130"/>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="130"/>
-      <c r="AQ5" s="130"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="131"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="48"/>
     </row>
     <row r="6" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="20"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="85"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="209"/>
+      <c r="K6" s="209"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="210"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -3266,28 +3290,28 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="123"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="133"/>
-      <c r="AE6" s="133"/>
-      <c r="AF6" s="133"/>
-      <c r="AG6" s="133"/>
-      <c r="AH6" s="133"/>
-      <c r="AI6" s="133"/>
-      <c r="AJ6" s="133"/>
-      <c r="AK6" s="133"/>
-      <c r="AL6" s="133"/>
-      <c r="AM6" s="133"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133"/>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133"/>
-      <c r="AU6" s="134"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="51"/>
     </row>
     <row r="7" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="21"/>
@@ -3314,32 +3338,32 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="120" t="s">
+      <c r="Z7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="80" t="s">
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="130"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="130"/>
-      <c r="AR7" s="130"/>
-      <c r="AS7" s="130"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="131"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="48"/>
     </row>
     <row r="8" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="43">
@@ -3371,11 +3395,11 @@
         <v>12</v>
       </c>
       <c r="L8" s="29"/>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="79"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="206"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -3386,28 +3410,28 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="133"/>
-      <c r="AE8" s="133"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="133"/>
-      <c r="AH8" s="133"/>
-      <c r="AI8" s="133"/>
-      <c r="AJ8" s="133"/>
-      <c r="AK8" s="133"/>
-      <c r="AL8" s="133"/>
-      <c r="AM8" s="133"/>
-      <c r="AN8" s="133"/>
-      <c r="AO8" s="133"/>
-      <c r="AP8" s="133"/>
-      <c r="AQ8" s="133"/>
-      <c r="AR8" s="133"/>
-      <c r="AS8" s="133"/>
-      <c r="AT8" s="133"/>
-      <c r="AU8" s="134"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="51"/>
     </row>
     <row r="9" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="31" t="s">
@@ -3438,50 +3462,50 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="120" t="s">
+      <c r="Z9" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="80" t="s">
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="130"/>
-      <c r="AN9" s="130"/>
-      <c r="AO9" s="130"/>
-      <c r="AP9" s="130"/>
-      <c r="AQ9" s="130"/>
-      <c r="AR9" s="130"/>
-      <c r="AS9" s="130"/>
-      <c r="AT9" s="130"/>
-      <c r="AU9" s="131"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="47"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="47"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="47"/>
+      <c r="AN9" s="47"/>
+      <c r="AO9" s="47"/>
+      <c r="AP9" s="47"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="47"/>
+      <c r="AS9" s="47"/>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="48"/>
     </row>
     <row r="10" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="201"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="135"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -3492,46 +3516,46 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="133"/>
-      <c r="AG10" s="133"/>
-      <c r="AH10" s="133"/>
-      <c r="AI10" s="133"/>
-      <c r="AJ10" s="133"/>
-      <c r="AK10" s="133"/>
-      <c r="AL10" s="133"/>
-      <c r="AM10" s="133"/>
-      <c r="AN10" s="133"/>
-      <c r="AO10" s="133"/>
-      <c r="AP10" s="133"/>
-      <c r="AQ10" s="133"/>
-      <c r="AR10" s="133"/>
-      <c r="AS10" s="133"/>
-      <c r="AT10" s="133"/>
-      <c r="AU10" s="134"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="50"/>
+      <c r="AU10" s="51"/>
     </row>
     <row r="11" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
       <c r="P11" s="34"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -3542,390 +3566,390 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="120" t="s">
+      <c r="Z11" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="80" t="s">
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="130"/>
-      <c r="AJ11" s="130"/>
-      <c r="AK11" s="130"/>
-      <c r="AL11" s="130"/>
-      <c r="AM11" s="130"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130"/>
-      <c r="AR11" s="130"/>
-      <c r="AS11" s="130"/>
-      <c r="AT11" s="130"/>
-      <c r="AU11" s="131"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="48"/>
     </row>
     <row r="12" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="206"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="207"/>
-      <c r="L12" s="207"/>
-      <c r="M12" s="207"/>
-      <c r="N12" s="207"/>
-      <c r="O12" s="207"/>
-      <c r="P12" s="187" t="s">
+      <c r="B12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="188"/>
-      <c r="W12" s="189"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="123"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="132"/>
-      <c r="AD12" s="133"/>
-      <c r="AE12" s="133"/>
-      <c r="AF12" s="133"/>
-      <c r="AG12" s="133"/>
-      <c r="AH12" s="133"/>
-      <c r="AI12" s="133"/>
-      <c r="AJ12" s="133"/>
-      <c r="AK12" s="133"/>
-      <c r="AL12" s="133"/>
-      <c r="AM12" s="133"/>
-      <c r="AN12" s="133"/>
-      <c r="AO12" s="133"/>
-      <c r="AP12" s="133"/>
-      <c r="AQ12" s="133"/>
-      <c r="AR12" s="133"/>
-      <c r="AS12" s="133"/>
-      <c r="AT12" s="133"/>
-      <c r="AU12" s="134"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+      <c r="AR12" s="50"/>
+      <c r="AS12" s="50"/>
+      <c r="AT12" s="50"/>
+      <c r="AU12" s="51"/>
     </row>
     <row r="13" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="197"/>
-      <c r="M13" s="197"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="198"/>
-      <c r="P13" s="159" t="s">
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="161"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="94"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="120" t="s">
+      <c r="Z13" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="80" t="s">
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC13" s="129"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="130"/>
-      <c r="AH13" s="130"/>
-      <c r="AI13" s="130"/>
-      <c r="AJ13" s="130"/>
-      <c r="AK13" s="130"/>
-      <c r="AL13" s="130"/>
-      <c r="AM13" s="130"/>
-      <c r="AN13" s="130"/>
-      <c r="AO13" s="130"/>
-      <c r="AP13" s="130"/>
-      <c r="AQ13" s="130"/>
-      <c r="AR13" s="130"/>
-      <c r="AS13" s="130"/>
-      <c r="AT13" s="130"/>
-      <c r="AU13" s="131"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="47"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="48"/>
     </row>
     <row r="14" spans="2:47" ht="34.5" customHeight="1">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="164"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="199"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="199"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="97"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="133"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="133"/>
-      <c r="AI14" s="133"/>
-      <c r="AJ14" s="133"/>
-      <c r="AK14" s="133"/>
-      <c r="AL14" s="133"/>
-      <c r="AM14" s="133"/>
-      <c r="AN14" s="133"/>
-      <c r="AO14" s="133"/>
-      <c r="AP14" s="133"/>
-      <c r="AQ14" s="133"/>
-      <c r="AR14" s="133"/>
-      <c r="AS14" s="133"/>
-      <c r="AT14" s="133"/>
-      <c r="AU14" s="134"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="51"/>
     </row>
     <row r="15" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="190" t="s">
+      <c r="B15" s="201"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="192"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="126"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="120" t="s">
+      <c r="Z15" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="80" t="s">
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="130"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="130"/>
-      <c r="AH15" s="130"/>
-      <c r="AI15" s="130"/>
-      <c r="AJ15" s="130"/>
-      <c r="AK15" s="130"/>
-      <c r="AL15" s="130"/>
-      <c r="AM15" s="130"/>
-      <c r="AN15" s="130"/>
-      <c r="AO15" s="130"/>
-      <c r="AP15" s="130"/>
-      <c r="AQ15" s="130"/>
-      <c r="AR15" s="130"/>
-      <c r="AS15" s="130"/>
-      <c r="AT15" s="130"/>
-      <c r="AU15" s="131"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="48"/>
     </row>
     <row r="16" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="158"/>
-      <c r="D16" s="193" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="194"/>
-      <c r="O16" s="195"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="173"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="106"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="133"/>
-      <c r="AG16" s="133"/>
-      <c r="AH16" s="133"/>
-      <c r="AI16" s="133"/>
-      <c r="AJ16" s="133"/>
-      <c r="AK16" s="133"/>
-      <c r="AL16" s="133"/>
-      <c r="AM16" s="133"/>
-      <c r="AN16" s="133"/>
-      <c r="AO16" s="133"/>
-      <c r="AP16" s="133"/>
-      <c r="AQ16" s="133"/>
-      <c r="AR16" s="133"/>
-      <c r="AS16" s="133"/>
-      <c r="AT16" s="133"/>
-      <c r="AU16" s="134"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="211"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="51"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="167"/>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="175"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="175"/>
-      <c r="W17" s="176"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="109"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="181"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="130"/>
-      <c r="AJ17" s="130"/>
-      <c r="AK17" s="130"/>
-      <c r="AL17" s="130"/>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="130"/>
-      <c r="AQ17" s="130"/>
-      <c r="AR17" s="130"/>
-      <c r="AS17" s="130"/>
-      <c r="AT17" s="130"/>
-      <c r="AU17" s="131"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="48"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="179"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="112"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="225"/>
-      <c r="AC18" s="209"/>
-      <c r="AD18" s="210"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="210"/>
-      <c r="AG18" s="210"/>
-      <c r="AH18" s="210"/>
-      <c r="AI18" s="210"/>
-      <c r="AJ18" s="210"/>
-      <c r="AK18" s="210"/>
-      <c r="AL18" s="210"/>
-      <c r="AM18" s="210"/>
-      <c r="AN18" s="210"/>
-      <c r="AO18" s="210"/>
-      <c r="AP18" s="210"/>
-      <c r="AQ18" s="210"/>
-      <c r="AR18" s="210"/>
-      <c r="AS18" s="210"/>
-      <c r="AT18" s="210"/>
-      <c r="AU18" s="211"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="55"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="3"/>
@@ -3952,718 +3976,718 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="87" t="s">
+      <c r="Z19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="AA19" s="88"/>
+      <c r="AA19" s="87"/>
       <c r="AB19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="91" t="s">
+      <c r="AC19" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="91"/>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="91"/>
-      <c r="AO19" s="91"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="92"/>
+      <c r="AD19" s="212"/>
+      <c r="AE19" s="212"/>
+      <c r="AF19" s="212"/>
+      <c r="AG19" s="212"/>
+      <c r="AH19" s="212"/>
+      <c r="AI19" s="212"/>
+      <c r="AJ19" s="212"/>
+      <c r="AK19" s="212"/>
+      <c r="AL19" s="212"/>
+      <c r="AM19" s="212"/>
+      <c r="AN19" s="212"/>
+      <c r="AO19" s="212"/>
+      <c r="AP19" s="212"/>
+      <c r="AQ19" s="212"/>
+      <c r="AR19" s="212"/>
+      <c r="AS19" s="212"/>
+      <c r="AT19" s="212"/>
+      <c r="AU19" s="213"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="88"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="186" t="s">
+      <c r="E20" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="90"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="120"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
-      <c r="Z20" s="120" t="s">
+      <c r="Z20" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="80" t="s">
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AC20" s="212" t="s">
+      <c r="AC20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AD20" s="213"/>
-      <c r="AE20" s="213"/>
-      <c r="AF20" s="213"/>
-      <c r="AG20" s="213"/>
-      <c r="AH20" s="213"/>
-      <c r="AI20" s="213"/>
-      <c r="AJ20" s="213"/>
-      <c r="AK20" s="213"/>
-      <c r="AL20" s="213"/>
-      <c r="AM20" s="213"/>
-      <c r="AN20" s="213"/>
-      <c r="AO20" s="213"/>
-      <c r="AP20" s="213"/>
-      <c r="AQ20" s="213"/>
-      <c r="AR20" s="213"/>
-      <c r="AS20" s="213"/>
-      <c r="AT20" s="213"/>
-      <c r="AU20" s="214"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="58"/>
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="180" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="181"/>
-      <c r="S21" s="181"/>
-      <c r="T21" s="181"/>
-      <c r="U21" s="181"/>
-      <c r="V21" s="181"/>
-      <c r="W21" s="182"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="114"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="215"/>
-      <c r="AD21" s="216"/>
-      <c r="AE21" s="216"/>
-      <c r="AF21" s="216"/>
-      <c r="AG21" s="216"/>
-      <c r="AH21" s="216"/>
-      <c r="AI21" s="216"/>
-      <c r="AJ21" s="216"/>
-      <c r="AK21" s="216"/>
-      <c r="AL21" s="216"/>
-      <c r="AM21" s="216"/>
-      <c r="AN21" s="216"/>
-      <c r="AO21" s="216"/>
-      <c r="AP21" s="216"/>
-      <c r="AQ21" s="216"/>
-      <c r="AR21" s="216"/>
-      <c r="AS21" s="216"/>
-      <c r="AT21" s="216"/>
-      <c r="AU21" s="217"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
+      <c r="AQ21" s="60"/>
+      <c r="AR21" s="60"/>
+      <c r="AS21" s="60"/>
+      <c r="AT21" s="60"/>
+      <c r="AU21" s="61"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="183"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="184"/>
-      <c r="S22" s="184"/>
-      <c r="T22" s="184"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="184"/>
-      <c r="W22" s="185"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="117"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="36"/>
-      <c r="Z22" s="120" t="s">
+      <c r="Z22" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="AA22" s="121"/>
-      <c r="AB22" s="80" t="s">
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="AC22" s="212" t="s">
+      <c r="AC22" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="AD22" s="213"/>
-      <c r="AE22" s="213"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="213"/>
-      <c r="AH22" s="213"/>
-      <c r="AI22" s="213"/>
-      <c r="AJ22" s="213"/>
-      <c r="AK22" s="213"/>
-      <c r="AL22" s="213"/>
-      <c r="AM22" s="213"/>
-      <c r="AN22" s="213"/>
-      <c r="AO22" s="213"/>
-      <c r="AP22" s="213"/>
-      <c r="AQ22" s="213"/>
-      <c r="AR22" s="213"/>
-      <c r="AS22" s="213"/>
-      <c r="AT22" s="213"/>
-      <c r="AU22" s="214"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="58"/>
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="45"/>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="144" t="s">
+      <c r="C23" s="82"/>
+      <c r="D23" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="64"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="36"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="215"/>
-      <c r="AD23" s="216"/>
-      <c r="AE23" s="216"/>
-      <c r="AF23" s="216"/>
-      <c r="AG23" s="216"/>
-      <c r="AH23" s="216"/>
-      <c r="AI23" s="216"/>
-      <c r="AJ23" s="216"/>
-      <c r="AK23" s="216"/>
-      <c r="AL23" s="216"/>
-      <c r="AM23" s="216"/>
-      <c r="AN23" s="216"/>
-      <c r="AO23" s="216"/>
-      <c r="AP23" s="216"/>
-      <c r="AQ23" s="216"/>
-      <c r="AR23" s="216"/>
-      <c r="AS23" s="216"/>
-      <c r="AT23" s="216"/>
-      <c r="AU23" s="217"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
+      <c r="AQ23" s="60"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="60"/>
+      <c r="AU23" s="61"/>
     </row>
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="45"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="67"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="36"/>
-      <c r="Z24" s="120" t="s">
+      <c r="Z24" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="AA24" s="121"/>
-      <c r="AB24" s="80" t="s">
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="AC24" s="212" t="s">
+      <c r="AC24" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="AD24" s="213"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="213"/>
-      <c r="AH24" s="213"/>
-      <c r="AI24" s="213"/>
-      <c r="AJ24" s="213"/>
-      <c r="AK24" s="213"/>
-      <c r="AL24" s="213"/>
-      <c r="AM24" s="213"/>
-      <c r="AN24" s="213"/>
-      <c r="AO24" s="213"/>
-      <c r="AP24" s="213"/>
-      <c r="AQ24" s="213"/>
-      <c r="AR24" s="213"/>
-      <c r="AS24" s="213"/>
-      <c r="AT24" s="213"/>
-      <c r="AU24" s="214"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="58"/>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="45"/>
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="144" t="s">
+      <c r="C25" s="82"/>
+      <c r="D25" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="48"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="64"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="215"/>
-      <c r="AD25" s="216"/>
-      <c r="AE25" s="216"/>
-      <c r="AF25" s="216"/>
-      <c r="AG25" s="216"/>
-      <c r="AH25" s="216"/>
-      <c r="AI25" s="216"/>
-      <c r="AJ25" s="216"/>
-      <c r="AK25" s="216"/>
-      <c r="AL25" s="216"/>
-      <c r="AM25" s="216"/>
-      <c r="AN25" s="216"/>
-      <c r="AO25" s="216"/>
-      <c r="AP25" s="216"/>
-      <c r="AQ25" s="216"/>
-      <c r="AR25" s="216"/>
-      <c r="AS25" s="216"/>
-      <c r="AT25" s="216"/>
-      <c r="AU25" s="217"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="60"/>
+      <c r="AR25" s="60"/>
+      <c r="AS25" s="60"/>
+      <c r="AT25" s="60"/>
+      <c r="AU25" s="61"/>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="45"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="51"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="67"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="36"/>
-      <c r="Z26" s="120" t="s">
+      <c r="Z26" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="AA26" s="121"/>
-      <c r="AB26" s="80" t="s">
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="AC26" s="212" t="s">
+      <c r="AC26" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AD26" s="213"/>
-      <c r="AE26" s="213"/>
-      <c r="AF26" s="213"/>
-      <c r="AG26" s="213"/>
-      <c r="AH26" s="213"/>
-      <c r="AI26" s="213"/>
-      <c r="AJ26" s="213"/>
-      <c r="AK26" s="213"/>
-      <c r="AL26" s="213"/>
-      <c r="AM26" s="213"/>
-      <c r="AN26" s="213"/>
-      <c r="AO26" s="213"/>
-      <c r="AP26" s="213"/>
-      <c r="AQ26" s="213"/>
-      <c r="AR26" s="213"/>
-      <c r="AS26" s="213"/>
-      <c r="AT26" s="213"/>
-      <c r="AU26" s="214"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="58"/>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="45"/>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="144" t="s">
+      <c r="C27" s="82"/>
+      <c r="D27" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="48"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="64"/>
       <c r="X27" s="36"/>
       <c r="Y27" s="36"/>
-      <c r="Z27" s="122"/>
-      <c r="AA27" s="123"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="215"/>
-      <c r="AD27" s="216"/>
-      <c r="AE27" s="216"/>
-      <c r="AF27" s="216"/>
-      <c r="AG27" s="216"/>
-      <c r="AH27" s="216"/>
-      <c r="AI27" s="216"/>
-      <c r="AJ27" s="216"/>
-      <c r="AK27" s="216"/>
-      <c r="AL27" s="216"/>
-      <c r="AM27" s="216"/>
-      <c r="AN27" s="216"/>
-      <c r="AO27" s="216"/>
-      <c r="AP27" s="216"/>
-      <c r="AQ27" s="216"/>
-      <c r="AR27" s="216"/>
-      <c r="AS27" s="216"/>
-      <c r="AT27" s="216"/>
-      <c r="AU27" s="217"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60"/>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="60"/>
+      <c r="AP27" s="60"/>
+      <c r="AQ27" s="60"/>
+      <c r="AR27" s="60"/>
+      <c r="AS27" s="60"/>
+      <c r="AT27" s="60"/>
+      <c r="AU27" s="61"/>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="45"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="51"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="67"/>
       <c r="X28" s="36"/>
       <c r="Y28" s="36"/>
-      <c r="Z28" s="120" t="s">
+      <c r="Z28" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="80" t="s">
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="AC28" s="212" t="s">
+      <c r="AC28" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AD28" s="213"/>
-      <c r="AE28" s="213"/>
-      <c r="AF28" s="213"/>
-      <c r="AG28" s="213"/>
-      <c r="AH28" s="213"/>
-      <c r="AI28" s="213"/>
-      <c r="AJ28" s="213"/>
-      <c r="AK28" s="213"/>
-      <c r="AL28" s="213"/>
-      <c r="AM28" s="213"/>
-      <c r="AN28" s="213"/>
-      <c r="AO28" s="213"/>
-      <c r="AP28" s="213"/>
-      <c r="AQ28" s="213"/>
-      <c r="AR28" s="213"/>
-      <c r="AS28" s="213"/>
-      <c r="AT28" s="213"/>
-      <c r="AU28" s="214"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="58"/>
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="45"/>
-      <c r="B29" s="152" t="s">
+      <c r="B29" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="144" t="s">
+      <c r="C29" s="82"/>
+      <c r="D29" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="48"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="64"/>
       <c r="X29" s="36"/>
       <c r="Y29" s="36"/>
-      <c r="Z29" s="122"/>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="215"/>
-      <c r="AD29" s="216"/>
-      <c r="AE29" s="216"/>
-      <c r="AF29" s="216"/>
-      <c r="AG29" s="216"/>
-      <c r="AH29" s="216"/>
-      <c r="AI29" s="216"/>
-      <c r="AJ29" s="216"/>
-      <c r="AK29" s="216"/>
-      <c r="AL29" s="216"/>
-      <c r="AM29" s="216"/>
-      <c r="AN29" s="216"/>
-      <c r="AO29" s="216"/>
-      <c r="AP29" s="216"/>
-      <c r="AQ29" s="216"/>
-      <c r="AR29" s="216"/>
-      <c r="AS29" s="216"/>
-      <c r="AT29" s="216"/>
-      <c r="AU29" s="217"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="60"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="60"/>
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="60"/>
+      <c r="AP29" s="60"/>
+      <c r="AQ29" s="60"/>
+      <c r="AR29" s="60"/>
+      <c r="AS29" s="60"/>
+      <c r="AT29" s="60"/>
+      <c r="AU29" s="61"/>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="45"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="51"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="36"/>
       <c r="Y30" s="36"/>
-      <c r="Z30" s="120" t="s">
+      <c r="Z30" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="80" t="s">
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="AC30" s="95" t="s">
+      <c r="AC30" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="AD30" s="96"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="96"/>
-      <c r="AG30" s="96"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="96"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="96"/>
-      <c r="AN30" s="96"/>
-      <c r="AO30" s="96"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="96"/>
-      <c r="AS30" s="96"/>
-      <c r="AT30" s="96"/>
-      <c r="AU30" s="97"/>
+      <c r="AD30" s="215"/>
+      <c r="AE30" s="215"/>
+      <c r="AF30" s="215"/>
+      <c r="AG30" s="215"/>
+      <c r="AH30" s="215"/>
+      <c r="AI30" s="215"/>
+      <c r="AJ30" s="215"/>
+      <c r="AK30" s="215"/>
+      <c r="AL30" s="215"/>
+      <c r="AM30" s="215"/>
+      <c r="AN30" s="215"/>
+      <c r="AO30" s="215"/>
+      <c r="AP30" s="215"/>
+      <c r="AQ30" s="215"/>
+      <c r="AR30" s="215"/>
+      <c r="AS30" s="215"/>
+      <c r="AT30" s="215"/>
+      <c r="AU30" s="216"/>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="45"/>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="153"/>
-      <c r="D31" s="144" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="48"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="64"/>
       <c r="X31" s="36"/>
       <c r="Y31" s="36"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="99"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="99"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="99"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="99"/>
-      <c r="AK31" s="99"/>
-      <c r="AL31" s="99"/>
-      <c r="AM31" s="99"/>
-      <c r="AN31" s="99"/>
-      <c r="AO31" s="99"/>
-      <c r="AP31" s="99"/>
-      <c r="AQ31" s="99"/>
-      <c r="AR31" s="99"/>
-      <c r="AS31" s="99"/>
-      <c r="AT31" s="99"/>
-      <c r="AU31" s="100"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="217"/>
+      <c r="AD31" s="218"/>
+      <c r="AE31" s="218"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="218"/>
+      <c r="AH31" s="218"/>
+      <c r="AI31" s="218"/>
+      <c r="AJ31" s="218"/>
+      <c r="AK31" s="218"/>
+      <c r="AL31" s="218"/>
+      <c r="AM31" s="218"/>
+      <c r="AN31" s="218"/>
+      <c r="AO31" s="218"/>
+      <c r="AP31" s="218"/>
+      <c r="AQ31" s="218"/>
+      <c r="AR31" s="218"/>
+      <c r="AS31" s="218"/>
+      <c r="AT31" s="218"/>
+      <c r="AU31" s="219"/>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="45"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="51"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="67"/>
       <c r="X32" s="36"/>
       <c r="Y32" s="36"/>
       <c r="Z32" s="3"/>
@@ -4691,181 +4715,181 @@
     </row>
     <row r="33" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="45"/>
-      <c r="B33" s="152" t="s">
+      <c r="B33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="153"/>
-      <c r="D33" s="144" t="s">
+      <c r="C33" s="82"/>
+      <c r="D33" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="115"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
+      <c r="N33" s="165"/>
+      <c r="O33" s="165"/>
+      <c r="P33" s="165"/>
+      <c r="Q33" s="165"/>
+      <c r="R33" s="165"/>
+      <c r="S33" s="165"/>
+      <c r="T33" s="165"/>
+      <c r="U33" s="165"/>
+      <c r="V33" s="165"/>
+      <c r="W33" s="166"/>
       <c r="X33" s="36"/>
       <c r="Y33" s="36"/>
-      <c r="Z33" s="107" t="s">
+      <c r="Z33" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="108"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="108"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="108"/>
-      <c r="AH33" s="108"/>
-      <c r="AI33" s="108"/>
-      <c r="AJ33" s="108"/>
-      <c r="AK33" s="108"/>
-      <c r="AL33" s="108"/>
-      <c r="AM33" s="108"/>
-      <c r="AN33" s="108"/>
-      <c r="AO33" s="108"/>
-      <c r="AP33" s="108"/>
-      <c r="AQ33" s="108"/>
-      <c r="AR33" s="108"/>
-      <c r="AS33" s="108"/>
-      <c r="AT33" s="108"/>
-      <c r="AU33" s="109"/>
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="174"/>
+      <c r="AC33" s="174"/>
+      <c r="AD33" s="174"/>
+      <c r="AE33" s="174"/>
+      <c r="AF33" s="174"/>
+      <c r="AG33" s="174"/>
+      <c r="AH33" s="174"/>
+      <c r="AI33" s="174"/>
+      <c r="AJ33" s="174"/>
+      <c r="AK33" s="174"/>
+      <c r="AL33" s="174"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="174"/>
+      <c r="AO33" s="174"/>
+      <c r="AP33" s="174"/>
+      <c r="AQ33" s="174"/>
+      <c r="AR33" s="174"/>
+      <c r="AS33" s="174"/>
+      <c r="AT33" s="174"/>
+      <c r="AU33" s="175"/>
     </row>
     <row r="34" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="45"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="118"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="168"/>
+      <c r="N34" s="168"/>
+      <c r="O34" s="168"/>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="168"/>
+      <c r="R34" s="168"/>
+      <c r="S34" s="168"/>
+      <c r="T34" s="168"/>
+      <c r="U34" s="168"/>
+      <c r="V34" s="168"/>
+      <c r="W34" s="169"/>
       <c r="X34" s="36"/>
       <c r="Y34" s="36"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="102"/>
-      <c r="AB34" s="102"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="102"/>
-      <c r="AE34" s="102"/>
-      <c r="AF34" s="102"/>
-      <c r="AG34" s="102"/>
-      <c r="AH34" s="102"/>
-      <c r="AI34" s="102"/>
-      <c r="AJ34" s="102"/>
-      <c r="AK34" s="102"/>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="102"/>
-      <c r="AO34" s="102"/>
-      <c r="AP34" s="102"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="102"/>
-      <c r="AT34" s="102"/>
-      <c r="AU34" s="103"/>
+      <c r="Z34" s="220"/>
+      <c r="AA34" s="221"/>
+      <c r="AB34" s="221"/>
+      <c r="AC34" s="221"/>
+      <c r="AD34" s="221"/>
+      <c r="AE34" s="221"/>
+      <c r="AF34" s="221"/>
+      <c r="AG34" s="221"/>
+      <c r="AH34" s="221"/>
+      <c r="AI34" s="221"/>
+      <c r="AJ34" s="221"/>
+      <c r="AK34" s="221"/>
+      <c r="AL34" s="221"/>
+      <c r="AM34" s="221"/>
+      <c r="AN34" s="221"/>
+      <c r="AO34" s="221"/>
+      <c r="AP34" s="221"/>
+      <c r="AQ34" s="221"/>
+      <c r="AR34" s="221"/>
+      <c r="AS34" s="221"/>
+      <c r="AT34" s="221"/>
+      <c r="AU34" s="222"/>
     </row>
     <row r="35" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="45"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="48"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="64"/>
       <c r="X35" s="36"/>
       <c r="Y35" s="36"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="105"/>
-      <c r="AB35" s="105"/>
-      <c r="AC35" s="105"/>
-      <c r="AD35" s="105"/>
-      <c r="AE35" s="105"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="105"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="105"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="105"/>
-      <c r="AP35" s="105"/>
-      <c r="AQ35" s="105"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="105"/>
-      <c r="AT35" s="105"/>
-      <c r="AU35" s="106"/>
+      <c r="Z35" s="223"/>
+      <c r="AA35" s="224"/>
+      <c r="AB35" s="224"/>
+      <c r="AC35" s="224"/>
+      <c r="AD35" s="224"/>
+      <c r="AE35" s="224"/>
+      <c r="AF35" s="224"/>
+      <c r="AG35" s="224"/>
+      <c r="AH35" s="224"/>
+      <c r="AI35" s="224"/>
+      <c r="AJ35" s="224"/>
+      <c r="AK35" s="224"/>
+      <c r="AL35" s="224"/>
+      <c r="AM35" s="224"/>
+      <c r="AN35" s="224"/>
+      <c r="AO35" s="224"/>
+      <c r="AP35" s="224"/>
+      <c r="AQ35" s="224"/>
+      <c r="AR35" s="224"/>
+      <c r="AS35" s="224"/>
+      <c r="AT35" s="224"/>
+      <c r="AU35" s="225"/>
     </row>
     <row r="36" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="45"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="51"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="67"/>
       <c r="X36" s="36"/>
       <c r="Y36" s="36"/>
       <c r="Z36" s="3"/>
@@ -4893,189 +4917,189 @@
     </row>
     <row r="37" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="45"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="113" t="s">
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="115"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="165"/>
+      <c r="O37" s="165"/>
+      <c r="P37" s="165"/>
+      <c r="Q37" s="165"/>
+      <c r="R37" s="165"/>
+      <c r="S37" s="165"/>
+      <c r="T37" s="165"/>
+      <c r="U37" s="165"/>
+      <c r="V37" s="165"/>
+      <c r="W37" s="166"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="36"/>
-      <c r="Z37" s="110" t="s">
+      <c r="Z37" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="111"/>
-      <c r="AC37" s="111"/>
-      <c r="AD37" s="111"/>
-      <c r="AE37" s="111"/>
-      <c r="AF37" s="111"/>
-      <c r="AG37" s="111"/>
-      <c r="AH37" s="111"/>
-      <c r="AI37" s="111"/>
-      <c r="AJ37" s="111"/>
-      <c r="AK37" s="111"/>
-      <c r="AL37" s="111"/>
-      <c r="AM37" s="111" t="s">
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="177"/>
+      <c r="AF37" s="177"/>
+      <c r="AG37" s="177"/>
+      <c r="AH37" s="177"/>
+      <c r="AI37" s="177"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="177"/>
+      <c r="AL37" s="177"/>
+      <c r="AM37" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="AN37" s="111"/>
-      <c r="AO37" s="111"/>
-      <c r="AP37" s="111"/>
-      <c r="AQ37" s="111"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="111"/>
-      <c r="AU37" s="112"/>
+      <c r="AN37" s="177"/>
+      <c r="AO37" s="177"/>
+      <c r="AP37" s="177"/>
+      <c r="AQ37" s="177"/>
+      <c r="AR37" s="177"/>
+      <c r="AS37" s="177"/>
+      <c r="AT37" s="177"/>
+      <c r="AU37" s="178"/>
     </row>
     <row r="38" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="45"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="118"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="168"/>
+      <c r="O38" s="168"/>
+      <c r="P38" s="168"/>
+      <c r="Q38" s="168"/>
+      <c r="R38" s="168"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="168"/>
+      <c r="U38" s="168"/>
+      <c r="V38" s="168"/>
+      <c r="W38" s="169"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
-      <c r="Z38" s="101" t="s">
+      <c r="Z38" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="AA38" s="102"/>
-      <c r="AB38" s="102"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="102"/>
-      <c r="AE38" s="102"/>
-      <c r="AF38" s="102"/>
-      <c r="AG38" s="102"/>
-      <c r="AH38" s="102"/>
-      <c r="AI38" s="102"/>
-      <c r="AJ38" s="102"/>
-      <c r="AK38" s="102"/>
-      <c r="AL38" s="102"/>
-      <c r="AM38" s="102"/>
-      <c r="AN38" s="102"/>
-      <c r="AO38" s="102"/>
-      <c r="AP38" s="102"/>
-      <c r="AQ38" s="102"/>
-      <c r="AR38" s="102"/>
-      <c r="AS38" s="102"/>
-      <c r="AT38" s="102"/>
-      <c r="AU38" s="103"/>
+      <c r="AA38" s="221"/>
+      <c r="AB38" s="221"/>
+      <c r="AC38" s="221"/>
+      <c r="AD38" s="221"/>
+      <c r="AE38" s="221"/>
+      <c r="AF38" s="221"/>
+      <c r="AG38" s="221"/>
+      <c r="AH38" s="221"/>
+      <c r="AI38" s="221"/>
+      <c r="AJ38" s="221"/>
+      <c r="AK38" s="221"/>
+      <c r="AL38" s="221"/>
+      <c r="AM38" s="221"/>
+      <c r="AN38" s="221"/>
+      <c r="AO38" s="221"/>
+      <c r="AP38" s="221"/>
+      <c r="AQ38" s="221"/>
+      <c r="AR38" s="221"/>
+      <c r="AS38" s="221"/>
+      <c r="AT38" s="221"/>
+      <c r="AU38" s="222"/>
     </row>
     <row r="39" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="45"/>
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="153"/>
-      <c r="D39" s="144" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="48"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="64"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="105"/>
-      <c r="AB39" s="105"/>
-      <c r="AC39" s="105"/>
-      <c r="AD39" s="105"/>
-      <c r="AE39" s="105"/>
-      <c r="AF39" s="105"/>
-      <c r="AG39" s="105"/>
-      <c r="AH39" s="105"/>
-      <c r="AI39" s="105"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="105"/>
-      <c r="AL39" s="105"/>
-      <c r="AM39" s="105"/>
-      <c r="AN39" s="105"/>
-      <c r="AO39" s="105"/>
-      <c r="AP39" s="105"/>
-      <c r="AQ39" s="105"/>
-      <c r="AR39" s="105"/>
-      <c r="AS39" s="105"/>
-      <c r="AT39" s="105"/>
-      <c r="AU39" s="106"/>
+      <c r="Z39" s="223"/>
+      <c r="AA39" s="224"/>
+      <c r="AB39" s="224"/>
+      <c r="AC39" s="224"/>
+      <c r="AD39" s="224"/>
+      <c r="AE39" s="224"/>
+      <c r="AF39" s="224"/>
+      <c r="AG39" s="224"/>
+      <c r="AH39" s="224"/>
+      <c r="AI39" s="224"/>
+      <c r="AJ39" s="224"/>
+      <c r="AK39" s="224"/>
+      <c r="AL39" s="224"/>
+      <c r="AM39" s="224"/>
+      <c r="AN39" s="224"/>
+      <c r="AO39" s="224"/>
+      <c r="AP39" s="224"/>
+      <c r="AQ39" s="224"/>
+      <c r="AR39" s="224"/>
+      <c r="AS39" s="224"/>
+      <c r="AT39" s="224"/>
+      <c r="AU39" s="225"/>
     </row>
     <row r="40" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="45"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="51"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="67"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
@@ -5102,622 +5126,628 @@
       <c r="AU40" s="8"/>
     </row>
     <row r="41" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B41" s="152" t="s">
+      <c r="B41" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="153"/>
-      <c r="D41" s="144" t="s">
+      <c r="C41" s="82"/>
+      <c r="D41" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="48"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="64"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="135" t="s">
+      <c r="Z41" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AA41" s="136"/>
-      <c r="AB41" s="136"/>
-      <c r="AC41" s="136"/>
-      <c r="AD41" s="136"/>
-      <c r="AE41" s="136"/>
-      <c r="AF41" s="136"/>
-      <c r="AG41" s="136"/>
-      <c r="AH41" s="136"/>
-      <c r="AI41" s="136"/>
-      <c r="AJ41" s="136"/>
-      <c r="AK41" s="136"/>
-      <c r="AL41" s="136"/>
-      <c r="AM41" s="136"/>
-      <c r="AN41" s="136"/>
-      <c r="AO41" s="136"/>
-      <c r="AP41" s="136"/>
-      <c r="AQ41" s="136"/>
-      <c r="AR41" s="136"/>
-      <c r="AS41" s="136"/>
-      <c r="AT41" s="136"/>
-      <c r="AU41" s="137"/>
+      <c r="AA41" s="171"/>
+      <c r="AB41" s="171"/>
+      <c r="AC41" s="171"/>
+      <c r="AD41" s="171"/>
+      <c r="AE41" s="171"/>
+      <c r="AF41" s="171"/>
+      <c r="AG41" s="171"/>
+      <c r="AH41" s="171"/>
+      <c r="AI41" s="171"/>
+      <c r="AJ41" s="171"/>
+      <c r="AK41" s="171"/>
+      <c r="AL41" s="171"/>
+      <c r="AM41" s="171"/>
+      <c r="AN41" s="171"/>
+      <c r="AO41" s="171"/>
+      <c r="AP41" s="171"/>
+      <c r="AQ41" s="171"/>
+      <c r="AR41" s="171"/>
+      <c r="AS41" s="171"/>
+      <c r="AT41" s="171"/>
+      <c r="AU41" s="172"/>
     </row>
     <row r="42" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="51"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="67"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="63"/>
-      <c r="AB42" s="63"/>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="63"/>
-      <c r="AE42" s="63"/>
-      <c r="AF42" s="63"/>
-      <c r="AG42" s="63"/>
-      <c r="AH42" s="63"/>
-      <c r="AI42" s="63"/>
-      <c r="AJ42" s="63"/>
-      <c r="AK42" s="63"/>
-      <c r="AL42" s="63"/>
-      <c r="AM42" s="63"/>
-      <c r="AN42" s="63"/>
-      <c r="AO42" s="63"/>
-      <c r="AP42" s="63"/>
-      <c r="AQ42" s="63"/>
-      <c r="AR42" s="63"/>
-      <c r="AS42" s="63"/>
-      <c r="AT42" s="63"/>
-      <c r="AU42" s="64"/>
+      <c r="Z42" s="189"/>
+      <c r="AA42" s="190"/>
+      <c r="AB42" s="190"/>
+      <c r="AC42" s="190"/>
+      <c r="AD42" s="190"/>
+      <c r="AE42" s="190"/>
+      <c r="AF42" s="190"/>
+      <c r="AG42" s="190"/>
+      <c r="AH42" s="190"/>
+      <c r="AI42" s="190"/>
+      <c r="AJ42" s="190"/>
+      <c r="AK42" s="190"/>
+      <c r="AL42" s="190"/>
+      <c r="AM42" s="190"/>
+      <c r="AN42" s="190"/>
+      <c r="AO42" s="190"/>
+      <c r="AP42" s="190"/>
+      <c r="AQ42" s="190"/>
+      <c r="AR42" s="190"/>
+      <c r="AS42" s="190"/>
+      <c r="AT42" s="190"/>
+      <c r="AU42" s="191"/>
     </row>
     <row r="43" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="149"/>
-      <c r="D43" s="146" t="s">
+      <c r="C43" s="155"/>
+      <c r="D43" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="48"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="64"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="66"/>
-      <c r="AN43" s="66"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="66"/>
-      <c r="AR43" s="66"/>
-      <c r="AS43" s="66"/>
-      <c r="AT43" s="66"/>
-      <c r="AU43" s="67"/>
+      <c r="Z43" s="192"/>
+      <c r="AA43" s="193"/>
+      <c r="AB43" s="193"/>
+      <c r="AC43" s="193"/>
+      <c r="AD43" s="193"/>
+      <c r="AE43" s="193"/>
+      <c r="AF43" s="193"/>
+      <c r="AG43" s="193"/>
+      <c r="AH43" s="193"/>
+      <c r="AI43" s="193"/>
+      <c r="AJ43" s="193"/>
+      <c r="AK43" s="193"/>
+      <c r="AL43" s="193"/>
+      <c r="AM43" s="193"/>
+      <c r="AN43" s="193"/>
+      <c r="AO43" s="193"/>
+      <c r="AP43" s="193"/>
+      <c r="AQ43" s="193"/>
+      <c r="AR43" s="193"/>
+      <c r="AS43" s="193"/>
+      <c r="AT43" s="193"/>
+      <c r="AU43" s="194"/>
     </row>
     <row r="44" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="150"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="51"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="67"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="67"/>
+      <c r="Z44" s="192"/>
+      <c r="AA44" s="193"/>
+      <c r="AB44" s="193"/>
+      <c r="AC44" s="193"/>
+      <c r="AD44" s="193"/>
+      <c r="AE44" s="193"/>
+      <c r="AF44" s="193"/>
+      <c r="AG44" s="193"/>
+      <c r="AH44" s="193"/>
+      <c r="AI44" s="193"/>
+      <c r="AJ44" s="193"/>
+      <c r="AK44" s="193"/>
+      <c r="AL44" s="193"/>
+      <c r="AM44" s="193"/>
+      <c r="AN44" s="193"/>
+      <c r="AO44" s="193"/>
+      <c r="AP44" s="193"/>
+      <c r="AQ44" s="193"/>
+      <c r="AR44" s="193"/>
+      <c r="AS44" s="193"/>
+      <c r="AT44" s="193"/>
+      <c r="AU44" s="194"/>
     </row>
     <row r="45" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="138"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="218" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="48"/>
+      <c r="B45" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="155"/>
+      <c r="D45" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="64"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="66"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="66"/>
-      <c r="AN45" s="66"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="66"/>
-      <c r="AQ45" s="66"/>
-      <c r="AR45" s="66"/>
-      <c r="AS45" s="66"/>
-      <c r="AT45" s="66"/>
-      <c r="AU45" s="67"/>
+      <c r="Z45" s="192"/>
+      <c r="AA45" s="193"/>
+      <c r="AB45" s="193"/>
+      <c r="AC45" s="193"/>
+      <c r="AD45" s="193"/>
+      <c r="AE45" s="193"/>
+      <c r="AF45" s="193"/>
+      <c r="AG45" s="193"/>
+      <c r="AH45" s="193"/>
+      <c r="AI45" s="193"/>
+      <c r="AJ45" s="193"/>
+      <c r="AK45" s="193"/>
+      <c r="AL45" s="193"/>
+      <c r="AM45" s="193"/>
+      <c r="AN45" s="193"/>
+      <c r="AO45" s="193"/>
+      <c r="AP45" s="193"/>
+      <c r="AQ45" s="193"/>
+      <c r="AR45" s="193"/>
+      <c r="AS45" s="193"/>
+      <c r="AT45" s="193"/>
+      <c r="AU45" s="194"/>
     </row>
     <row r="46" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="140"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="W46" s="51"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="67"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="66"/>
-      <c r="AB46" s="66"/>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
-      <c r="AH46" s="66"/>
-      <c r="AI46" s="66"/>
-      <c r="AJ46" s="66"/>
-      <c r="AK46" s="66"/>
-      <c r="AL46" s="66"/>
-      <c r="AM46" s="66"/>
-      <c r="AN46" s="66"/>
-      <c r="AO46" s="66"/>
-      <c r="AP46" s="66"/>
-      <c r="AQ46" s="66"/>
-      <c r="AR46" s="66"/>
-      <c r="AS46" s="66"/>
-      <c r="AT46" s="66"/>
-      <c r="AU46" s="67"/>
+      <c r="Z46" s="192"/>
+      <c r="AA46" s="193"/>
+      <c r="AB46" s="193"/>
+      <c r="AC46" s="193"/>
+      <c r="AD46" s="193"/>
+      <c r="AE46" s="193"/>
+      <c r="AF46" s="193"/>
+      <c r="AG46" s="193"/>
+      <c r="AH46" s="193"/>
+      <c r="AI46" s="193"/>
+      <c r="AJ46" s="193"/>
+      <c r="AK46" s="193"/>
+      <c r="AL46" s="193"/>
+      <c r="AM46" s="193"/>
+      <c r="AN46" s="193"/>
+      <c r="AO46" s="193"/>
+      <c r="AP46" s="193"/>
+      <c r="AQ46" s="193"/>
+      <c r="AR46" s="193"/>
+      <c r="AS46" s="193"/>
+      <c r="AT46" s="193"/>
+      <c r="AU46" s="194"/>
     </row>
     <row r="47" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="138"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="219" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="220"/>
-      <c r="G47" s="220"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="220"/>
-      <c r="K47" s="220"/>
-      <c r="L47" s="220"/>
-      <c r="M47" s="220"/>
-      <c r="N47" s="220"/>
-      <c r="O47" s="220"/>
-      <c r="P47" s="220"/>
-      <c r="Q47" s="220"/>
-      <c r="R47" s="220"/>
-      <c r="S47" s="220"/>
-      <c r="T47" s="220"/>
-      <c r="U47" s="220"/>
-      <c r="V47" s="220"/>
-      <c r="W47" s="221"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="63"/>
+      <c r="Q47" s="63"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="64"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="66"/>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="66"/>
-      <c r="AI47" s="66"/>
-      <c r="AJ47" s="66"/>
-      <c r="AK47" s="66"/>
-      <c r="AL47" s="66"/>
-      <c r="AM47" s="66"/>
-      <c r="AN47" s="66"/>
-      <c r="AO47" s="66"/>
-      <c r="AP47" s="66"/>
-      <c r="AQ47" s="66"/>
-      <c r="AR47" s="66"/>
-      <c r="AS47" s="66"/>
-      <c r="AT47" s="66"/>
-      <c r="AU47" s="67"/>
+      <c r="Z47" s="192"/>
+      <c r="AA47" s="193"/>
+      <c r="AB47" s="193"/>
+      <c r="AC47" s="193"/>
+      <c r="AD47" s="193"/>
+      <c r="AE47" s="193"/>
+      <c r="AF47" s="193"/>
+      <c r="AG47" s="193"/>
+      <c r="AH47" s="193"/>
+      <c r="AI47" s="193"/>
+      <c r="AJ47" s="193"/>
+      <c r="AK47" s="193"/>
+      <c r="AL47" s="193"/>
+      <c r="AM47" s="193"/>
+      <c r="AN47" s="193"/>
+      <c r="AO47" s="193"/>
+      <c r="AP47" s="193"/>
+      <c r="AQ47" s="193"/>
+      <c r="AR47" s="193"/>
+      <c r="AS47" s="193"/>
+      <c r="AT47" s="193"/>
+      <c r="AU47" s="194"/>
     </row>
     <row r="48" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="140"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="222"/>
-      <c r="F48" s="223"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="223"/>
-      <c r="J48" s="223"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
-      <c r="M48" s="223"/>
-      <c r="N48" s="223"/>
-      <c r="O48" s="223"/>
-      <c r="P48" s="223"/>
-      <c r="Q48" s="223"/>
-      <c r="R48" s="223"/>
-      <c r="S48" s="223"/>
-      <c r="T48" s="223"/>
-      <c r="U48" s="223"/>
-      <c r="V48" s="223"/>
-      <c r="W48" s="224"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="67"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="66"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66"/>
-      <c r="AF48" s="66"/>
-      <c r="AG48" s="66"/>
-      <c r="AH48" s="66"/>
-      <c r="AI48" s="66"/>
-      <c r="AJ48" s="66"/>
-      <c r="AK48" s="66"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="66"/>
-      <c r="AN48" s="66"/>
-      <c r="AO48" s="66"/>
-      <c r="AP48" s="66"/>
-      <c r="AQ48" s="66"/>
-      <c r="AR48" s="66"/>
-      <c r="AS48" s="66"/>
-      <c r="AT48" s="66"/>
-      <c r="AU48" s="67"/>
+      <c r="Z48" s="192"/>
+      <c r="AA48" s="193"/>
+      <c r="AB48" s="193"/>
+      <c r="AC48" s="193"/>
+      <c r="AD48" s="193"/>
+      <c r="AE48" s="193"/>
+      <c r="AF48" s="193"/>
+      <c r="AG48" s="193"/>
+      <c r="AH48" s="193"/>
+      <c r="AI48" s="193"/>
+      <c r="AJ48" s="193"/>
+      <c r="AK48" s="193"/>
+      <c r="AL48" s="193"/>
+      <c r="AM48" s="193"/>
+      <c r="AN48" s="193"/>
+      <c r="AO48" s="193"/>
+      <c r="AP48" s="193"/>
+      <c r="AQ48" s="193"/>
+      <c r="AR48" s="193"/>
+      <c r="AS48" s="193"/>
+      <c r="AT48" s="193"/>
+      <c r="AU48" s="194"/>
     </row>
     <row r="49" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
-      <c r="U49" s="130"/>
-      <c r="V49" s="130"/>
-      <c r="W49" s="131"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="70"/>
+      <c r="R49" s="70"/>
+      <c r="S49" s="70"/>
+      <c r="T49" s="70"/>
+      <c r="U49" s="70"/>
+      <c r="V49" s="70"/>
+      <c r="W49" s="71"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="66"/>
-      <c r="AB49" s="66"/>
-      <c r="AC49" s="66"/>
-      <c r="AD49" s="66"/>
-      <c r="AE49" s="66"/>
-      <c r="AF49" s="66"/>
-      <c r="AG49" s="66"/>
-      <c r="AH49" s="66"/>
-      <c r="AI49" s="66"/>
-      <c r="AJ49" s="66"/>
-      <c r="AK49" s="66"/>
-      <c r="AL49" s="66"/>
-      <c r="AM49" s="66"/>
-      <c r="AN49" s="66"/>
-      <c r="AO49" s="66"/>
-      <c r="AP49" s="66"/>
-      <c r="AQ49" s="66"/>
-      <c r="AR49" s="66"/>
-      <c r="AS49" s="66"/>
-      <c r="AT49" s="66"/>
-      <c r="AU49" s="67"/>
+      <c r="Z49" s="192"/>
+      <c r="AA49" s="193"/>
+      <c r="AB49" s="193"/>
+      <c r="AC49" s="193"/>
+      <c r="AD49" s="193"/>
+      <c r="AE49" s="193"/>
+      <c r="AF49" s="193"/>
+      <c r="AG49" s="193"/>
+      <c r="AH49" s="193"/>
+      <c r="AI49" s="193"/>
+      <c r="AJ49" s="193"/>
+      <c r="AK49" s="193"/>
+      <c r="AL49" s="193"/>
+      <c r="AM49" s="193"/>
+      <c r="AN49" s="193"/>
+      <c r="AO49" s="193"/>
+      <c r="AP49" s="193"/>
+      <c r="AQ49" s="193"/>
+      <c r="AR49" s="193"/>
+      <c r="AS49" s="193"/>
+      <c r="AT49" s="193"/>
+      <c r="AU49" s="194"/>
     </row>
     <row r="50" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="140"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="133"/>
-      <c r="O50" s="133"/>
-      <c r="P50" s="133"/>
-      <c r="Q50" s="133"/>
-      <c r="R50" s="133"/>
-      <c r="S50" s="133"/>
-      <c r="T50" s="133"/>
-      <c r="U50" s="133"/>
-      <c r="V50" s="133"/>
-      <c r="W50" s="134"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="74"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="66"/>
-      <c r="AB50" s="66"/>
-      <c r="AC50" s="66"/>
-      <c r="AD50" s="66"/>
-      <c r="AE50" s="66"/>
-      <c r="AF50" s="66"/>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="66"/>
-      <c r="AK50" s="66"/>
-      <c r="AL50" s="66"/>
-      <c r="AM50" s="66"/>
-      <c r="AN50" s="66"/>
-      <c r="AO50" s="66"/>
-      <c r="AP50" s="66"/>
-      <c r="AQ50" s="66"/>
-      <c r="AR50" s="66"/>
-      <c r="AS50" s="66"/>
-      <c r="AT50" s="66"/>
-      <c r="AU50" s="67"/>
+      <c r="Z50" s="192"/>
+      <c r="AA50" s="193"/>
+      <c r="AB50" s="193"/>
+      <c r="AC50" s="193"/>
+      <c r="AD50" s="193"/>
+      <c r="AE50" s="193"/>
+      <c r="AF50" s="193"/>
+      <c r="AG50" s="193"/>
+      <c r="AH50" s="193"/>
+      <c r="AI50" s="193"/>
+      <c r="AJ50" s="193"/>
+      <c r="AK50" s="193"/>
+      <c r="AL50" s="193"/>
+      <c r="AM50" s="193"/>
+      <c r="AN50" s="193"/>
+      <c r="AO50" s="193"/>
+      <c r="AP50" s="193"/>
+      <c r="AQ50" s="193"/>
+      <c r="AR50" s="193"/>
+      <c r="AS50" s="193"/>
+      <c r="AT50" s="193"/>
+      <c r="AU50" s="194"/>
     </row>
     <row r="51" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="130"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="130"/>
-      <c r="O51" s="130"/>
-      <c r="P51" s="130"/>
-      <c r="Q51" s="130"/>
-      <c r="R51" s="130"/>
-      <c r="S51" s="130"/>
-      <c r="T51" s="130"/>
-      <c r="U51" s="130"/>
-      <c r="V51" s="130"/>
-      <c r="W51" s="131"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="47"/>
+      <c r="W51" s="48"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="66"/>
-      <c r="AB51" s="66"/>
-      <c r="AC51" s="66"/>
-      <c r="AD51" s="66"/>
-      <c r="AE51" s="66"/>
-      <c r="AF51" s="66"/>
-      <c r="AG51" s="66"/>
-      <c r="AH51" s="66"/>
-      <c r="AI51" s="66"/>
-      <c r="AJ51" s="66"/>
-      <c r="AK51" s="66"/>
-      <c r="AL51" s="66"/>
-      <c r="AM51" s="66"/>
-      <c r="AN51" s="66"/>
-      <c r="AO51" s="66"/>
-      <c r="AP51" s="66"/>
-      <c r="AQ51" s="66"/>
-      <c r="AR51" s="66"/>
-      <c r="AS51" s="66"/>
-      <c r="AT51" s="66"/>
-      <c r="AU51" s="67"/>
+      <c r="Z51" s="192"/>
+      <c r="AA51" s="193"/>
+      <c r="AB51" s="193"/>
+      <c r="AC51" s="193"/>
+      <c r="AD51" s="193"/>
+      <c r="AE51" s="193"/>
+      <c r="AF51" s="193"/>
+      <c r="AG51" s="193"/>
+      <c r="AH51" s="193"/>
+      <c r="AI51" s="193"/>
+      <c r="AJ51" s="193"/>
+      <c r="AK51" s="193"/>
+      <c r="AL51" s="193"/>
+      <c r="AM51" s="193"/>
+      <c r="AN51" s="193"/>
+      <c r="AO51" s="193"/>
+      <c r="AP51" s="193"/>
+      <c r="AQ51" s="193"/>
+      <c r="AR51" s="193"/>
+      <c r="AS51" s="193"/>
+      <c r="AT51" s="193"/>
+      <c r="AU51" s="194"/>
     </row>
     <row r="52" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B52" s="140"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="133"/>
-      <c r="P52" s="133"/>
-      <c r="Q52" s="133"/>
-      <c r="R52" s="133"/>
-      <c r="S52" s="133"/>
-      <c r="T52" s="133"/>
-      <c r="U52" s="133"/>
-      <c r="V52" s="133"/>
-      <c r="W52" s="134"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="50"/>
+      <c r="T52" s="50"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="51"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="68"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="69"/>
-      <c r="AF52" s="69"/>
-      <c r="AG52" s="69"/>
-      <c r="AH52" s="69"/>
-      <c r="AI52" s="69"/>
-      <c r="AJ52" s="69"/>
-      <c r="AK52" s="69"/>
-      <c r="AL52" s="69"/>
-      <c r="AM52" s="69"/>
-      <c r="AN52" s="69"/>
-      <c r="AO52" s="69"/>
-      <c r="AP52" s="69"/>
-      <c r="AQ52" s="69"/>
-      <c r="AR52" s="69"/>
-      <c r="AS52" s="69"/>
-      <c r="AT52" s="69"/>
-      <c r="AU52" s="70"/>
+      <c r="Z52" s="195"/>
+      <c r="AA52" s="196"/>
+      <c r="AB52" s="196"/>
+      <c r="AC52" s="196"/>
+      <c r="AD52" s="196"/>
+      <c r="AE52" s="196"/>
+      <c r="AF52" s="196"/>
+      <c r="AG52" s="196"/>
+      <c r="AH52" s="196"/>
+      <c r="AI52" s="196"/>
+      <c r="AJ52" s="196"/>
+      <c r="AK52" s="196"/>
+      <c r="AL52" s="196"/>
+      <c r="AM52" s="196"/>
+      <c r="AN52" s="196"/>
+      <c r="AO52" s="196"/>
+      <c r="AP52" s="196"/>
+      <c r="AQ52" s="196"/>
+      <c r="AR52" s="196"/>
+      <c r="AS52" s="196"/>
+      <c r="AT52" s="196"/>
+      <c r="AU52" s="197"/>
     </row>
     <row r="53" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B53" s="138"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
-      <c r="U53" s="130"/>
-      <c r="V53" s="130"/>
-      <c r="W53" s="131"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="47"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="47"/>
+      <c r="W53" s="48"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="44"/>
@@ -5744,348 +5774,454 @@
       <c r="AU53" s="44"/>
     </row>
     <row r="54" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="140"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="133"/>
-      <c r="N54" s="133"/>
-      <c r="O54" s="133"/>
-      <c r="P54" s="133"/>
-      <c r="Q54" s="133"/>
-      <c r="R54" s="133"/>
-      <c r="S54" s="133"/>
-      <c r="T54" s="133"/>
-      <c r="U54" s="133"/>
-      <c r="V54" s="133"/>
-      <c r="W54" s="134"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
+      <c r="W54" s="51"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-      <c r="Z54" s="126" t="s">
+      <c r="Z54" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="127"/>
-      <c r="AC54" s="127"/>
-      <c r="AD54" s="127"/>
-      <c r="AE54" s="127"/>
-      <c r="AF54" s="127"/>
-      <c r="AG54" s="127"/>
-      <c r="AH54" s="127"/>
-      <c r="AI54" s="127"/>
-      <c r="AJ54" s="127"/>
-      <c r="AK54" s="127"/>
-      <c r="AL54" s="127"/>
-      <c r="AM54" s="127"/>
-      <c r="AN54" s="127"/>
-      <c r="AO54" s="127"/>
-      <c r="AP54" s="127"/>
-      <c r="AQ54" s="127"/>
-      <c r="AR54" s="127"/>
-      <c r="AS54" s="127"/>
-      <c r="AT54" s="127"/>
-      <c r="AU54" s="128"/>
+      <c r="AA54" s="162"/>
+      <c r="AB54" s="162"/>
+      <c r="AC54" s="162"/>
+      <c r="AD54" s="162"/>
+      <c r="AE54" s="162"/>
+      <c r="AF54" s="162"/>
+      <c r="AG54" s="162"/>
+      <c r="AH54" s="162"/>
+      <c r="AI54" s="162"/>
+      <c r="AJ54" s="162"/>
+      <c r="AK54" s="162"/>
+      <c r="AL54" s="162"/>
+      <c r="AM54" s="162"/>
+      <c r="AN54" s="162"/>
+      <c r="AO54" s="162"/>
+      <c r="AP54" s="162"/>
+      <c r="AQ54" s="162"/>
+      <c r="AR54" s="162"/>
+      <c r="AS54" s="162"/>
+      <c r="AT54" s="162"/>
+      <c r="AU54" s="163"/>
     </row>
     <row r="55" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="T55" s="130"/>
-      <c r="U55" s="130"/>
-      <c r="V55" s="130"/>
-      <c r="W55" s="131"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="47"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="48"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="54"/>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
-      <c r="AH55" s="54"/>
-      <c r="AI55" s="54"/>
-      <c r="AJ55" s="54"/>
-      <c r="AK55" s="54"/>
-      <c r="AL55" s="54"/>
-      <c r="AM55" s="54"/>
-      <c r="AN55" s="54"/>
-      <c r="AO55" s="54"/>
-      <c r="AP55" s="54"/>
-      <c r="AQ55" s="54"/>
-      <c r="AR55" s="54"/>
-      <c r="AS55" s="54"/>
-      <c r="AT55" s="54"/>
-      <c r="AU55" s="55"/>
+      <c r="Z55" s="180"/>
+      <c r="AA55" s="181"/>
+      <c r="AB55" s="181"/>
+      <c r="AC55" s="181"/>
+      <c r="AD55" s="181"/>
+      <c r="AE55" s="181"/>
+      <c r="AF55" s="181"/>
+      <c r="AG55" s="181"/>
+      <c r="AH55" s="181"/>
+      <c r="AI55" s="181"/>
+      <c r="AJ55" s="181"/>
+      <c r="AK55" s="181"/>
+      <c r="AL55" s="181"/>
+      <c r="AM55" s="181"/>
+      <c r="AN55" s="181"/>
+      <c r="AO55" s="181"/>
+      <c r="AP55" s="181"/>
+      <c r="AQ55" s="181"/>
+      <c r="AR55" s="181"/>
+      <c r="AS55" s="181"/>
+      <c r="AT55" s="181"/>
+      <c r="AU55" s="182"/>
     </row>
     <row r="56" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="140"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="133"/>
-      <c r="N56" s="133"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="133"/>
-      <c r="V56" s="133"/>
-      <c r="W56" s="134"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
+      <c r="W56" s="51"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="57"/>
-      <c r="AC56" s="57"/>
-      <c r="AD56" s="57"/>
-      <c r="AE56" s="57"/>
-      <c r="AF56" s="57"/>
-      <c r="AG56" s="57"/>
-      <c r="AH56" s="57"/>
-      <c r="AI56" s="57"/>
-      <c r="AJ56" s="57"/>
-      <c r="AK56" s="57"/>
-      <c r="AL56" s="57"/>
-      <c r="AM56" s="57"/>
-      <c r="AN56" s="57"/>
-      <c r="AO56" s="57"/>
-      <c r="AP56" s="57"/>
-      <c r="AQ56" s="57"/>
-      <c r="AR56" s="57"/>
-      <c r="AS56" s="57"/>
-      <c r="AT56" s="57"/>
-      <c r="AU56" s="58"/>
+      <c r="Z56" s="183"/>
+      <c r="AA56" s="184"/>
+      <c r="AB56" s="184"/>
+      <c r="AC56" s="184"/>
+      <c r="AD56" s="184"/>
+      <c r="AE56" s="184"/>
+      <c r="AF56" s="184"/>
+      <c r="AG56" s="184"/>
+      <c r="AH56" s="184"/>
+      <c r="AI56" s="184"/>
+      <c r="AJ56" s="184"/>
+      <c r="AK56" s="184"/>
+      <c r="AL56" s="184"/>
+      <c r="AM56" s="184"/>
+      <c r="AN56" s="184"/>
+      <c r="AO56" s="184"/>
+      <c r="AP56" s="184"/>
+      <c r="AQ56" s="184"/>
+      <c r="AR56" s="184"/>
+      <c r="AS56" s="184"/>
+      <c r="AT56" s="184"/>
+      <c r="AU56" s="185"/>
     </row>
     <row r="57" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="138"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="130"/>
-      <c r="Q57" s="130"/>
-      <c r="R57" s="130"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="130"/>
-      <c r="U57" s="130"/>
-      <c r="V57" s="130"/>
-      <c r="W57" s="131"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="47"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="48"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="57"/>
-      <c r="AC57" s="57"/>
-      <c r="AD57" s="57"/>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="57"/>
-      <c r="AG57" s="57"/>
-      <c r="AH57" s="57"/>
-      <c r="AI57" s="57"/>
-      <c r="AJ57" s="57"/>
-      <c r="AK57" s="57"/>
-      <c r="AL57" s="57"/>
-      <c r="AM57" s="57"/>
-      <c r="AN57" s="57"/>
-      <c r="AO57" s="57"/>
-      <c r="AP57" s="57"/>
-      <c r="AQ57" s="57"/>
-      <c r="AR57" s="57"/>
-      <c r="AS57" s="57"/>
-      <c r="AT57" s="57"/>
-      <c r="AU57" s="58"/>
+      <c r="Z57" s="183"/>
+      <c r="AA57" s="184"/>
+      <c r="AB57" s="184"/>
+      <c r="AC57" s="184"/>
+      <c r="AD57" s="184"/>
+      <c r="AE57" s="184"/>
+      <c r="AF57" s="184"/>
+      <c r="AG57" s="184"/>
+      <c r="AH57" s="184"/>
+      <c r="AI57" s="184"/>
+      <c r="AJ57" s="184"/>
+      <c r="AK57" s="184"/>
+      <c r="AL57" s="184"/>
+      <c r="AM57" s="184"/>
+      <c r="AN57" s="184"/>
+      <c r="AO57" s="184"/>
+      <c r="AP57" s="184"/>
+      <c r="AQ57" s="184"/>
+      <c r="AR57" s="184"/>
+      <c r="AS57" s="184"/>
+      <c r="AT57" s="184"/>
+      <c r="AU57" s="185"/>
     </row>
     <row r="58" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="140"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="133"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="133"/>
-      <c r="O58" s="133"/>
-      <c r="P58" s="133"/>
-      <c r="Q58" s="133"/>
-      <c r="R58" s="133"/>
-      <c r="S58" s="133"/>
-      <c r="T58" s="133"/>
-      <c r="U58" s="133"/>
-      <c r="V58" s="133"/>
-      <c r="W58" s="134"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="145"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
+      <c r="W58" s="51"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="57"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="57"/>
-      <c r="AD58" s="57"/>
-      <c r="AE58" s="57"/>
-      <c r="AF58" s="57"/>
-      <c r="AG58" s="57"/>
-      <c r="AH58" s="57"/>
-      <c r="AI58" s="57"/>
-      <c r="AJ58" s="57"/>
-      <c r="AK58" s="57"/>
-      <c r="AL58" s="57"/>
-      <c r="AM58" s="57"/>
-      <c r="AN58" s="57"/>
-      <c r="AO58" s="57"/>
-      <c r="AP58" s="57"/>
-      <c r="AQ58" s="57"/>
-      <c r="AR58" s="57"/>
-      <c r="AS58" s="57"/>
-      <c r="AT58" s="57"/>
-      <c r="AU58" s="58"/>
+      <c r="Z58" s="183"/>
+      <c r="AA58" s="184"/>
+      <c r="AB58" s="184"/>
+      <c r="AC58" s="184"/>
+      <c r="AD58" s="184"/>
+      <c r="AE58" s="184"/>
+      <c r="AF58" s="184"/>
+      <c r="AG58" s="184"/>
+      <c r="AH58" s="184"/>
+      <c r="AI58" s="184"/>
+      <c r="AJ58" s="184"/>
+      <c r="AK58" s="184"/>
+      <c r="AL58" s="184"/>
+      <c r="AM58" s="184"/>
+      <c r="AN58" s="184"/>
+      <c r="AO58" s="184"/>
+      <c r="AP58" s="184"/>
+      <c r="AQ58" s="184"/>
+      <c r="AR58" s="184"/>
+      <c r="AS58" s="184"/>
+      <c r="AT58" s="184"/>
+      <c r="AU58" s="185"/>
     </row>
     <row r="59" spans="2:47" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="138"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="130"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="130"/>
-      <c r="Q59" s="130"/>
-      <c r="R59" s="130"/>
-      <c r="S59" s="130"/>
-      <c r="T59" s="130"/>
-      <c r="U59" s="130"/>
-      <c r="V59" s="130"/>
-      <c r="W59" s="131"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="143"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="47"/>
+      <c r="T59" s="47"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="48"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
-      <c r="AD59" s="57"/>
-      <c r="AE59" s="57"/>
-      <c r="AF59" s="57"/>
-      <c r="AG59" s="57"/>
-      <c r="AH59" s="57"/>
-      <c r="AI59" s="57"/>
-      <c r="AJ59" s="57"/>
-      <c r="AK59" s="57"/>
-      <c r="AL59" s="57"/>
-      <c r="AM59" s="57"/>
-      <c r="AN59" s="57"/>
-      <c r="AO59" s="57"/>
-      <c r="AP59" s="57"/>
-      <c r="AQ59" s="57"/>
-      <c r="AR59" s="57"/>
-      <c r="AS59" s="57"/>
-      <c r="AT59" s="57"/>
-      <c r="AU59" s="58"/>
+      <c r="Z59" s="183"/>
+      <c r="AA59" s="184"/>
+      <c r="AB59" s="184"/>
+      <c r="AC59" s="184"/>
+      <c r="AD59" s="184"/>
+      <c r="AE59" s="184"/>
+      <c r="AF59" s="184"/>
+      <c r="AG59" s="184"/>
+      <c r="AH59" s="184"/>
+      <c r="AI59" s="184"/>
+      <c r="AJ59" s="184"/>
+      <c r="AK59" s="184"/>
+      <c r="AL59" s="184"/>
+      <c r="AM59" s="184"/>
+      <c r="AN59" s="184"/>
+      <c r="AO59" s="184"/>
+      <c r="AP59" s="184"/>
+      <c r="AQ59" s="184"/>
+      <c r="AR59" s="184"/>
+      <c r="AS59" s="184"/>
+      <c r="AT59" s="184"/>
+      <c r="AU59" s="185"/>
     </row>
     <row r="60" spans="2:47" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B60" s="142"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="O60" s="133"/>
-      <c r="P60" s="133"/>
-      <c r="Q60" s="133"/>
-      <c r="R60" s="133"/>
-      <c r="S60" s="133"/>
-      <c r="T60" s="133"/>
-      <c r="U60" s="133"/>
-      <c r="V60" s="133"/>
-      <c r="W60" s="134"/>
+      <c r="B60" s="146"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="51"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
-      <c r="AC60" s="60"/>
-      <c r="AD60" s="60"/>
-      <c r="AE60" s="60"/>
-      <c r="AF60" s="60"/>
-      <c r="AG60" s="60"/>
-      <c r="AH60" s="60"/>
-      <c r="AI60" s="60"/>
-      <c r="AJ60" s="60"/>
-      <c r="AK60" s="60"/>
-      <c r="AL60" s="60"/>
-      <c r="AM60" s="60"/>
-      <c r="AN60" s="60"/>
-      <c r="AO60" s="60"/>
-      <c r="AP60" s="60"/>
-      <c r="AQ60" s="60"/>
-      <c r="AR60" s="60"/>
-      <c r="AS60" s="60"/>
-      <c r="AT60" s="60"/>
-      <c r="AU60" s="61"/>
+      <c r="Z60" s="186"/>
+      <c r="AA60" s="187"/>
+      <c r="AB60" s="187"/>
+      <c r="AC60" s="187"/>
+      <c r="AD60" s="187"/>
+      <c r="AE60" s="187"/>
+      <c r="AF60" s="187"/>
+      <c r="AG60" s="187"/>
+      <c r="AH60" s="187"/>
+      <c r="AI60" s="187"/>
+      <c r="AJ60" s="187"/>
+      <c r="AK60" s="187"/>
+      <c r="AL60" s="187"/>
+      <c r="AM60" s="187"/>
+      <c r="AN60" s="187"/>
+      <c r="AO60" s="187"/>
+      <c r="AP60" s="187"/>
+      <c r="AQ60" s="187"/>
+      <c r="AR60" s="187"/>
+      <c r="AS60" s="187"/>
+      <c r="AT60" s="187"/>
+      <c r="AU60" s="188"/>
     </row>
     <row r="61" spans="2:47" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="130">
+    <mergeCell ref="E39:W40"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Z55:AU60"/>
+    <mergeCell ref="Z42:AU52"/>
+    <mergeCell ref="B14:O15"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="C5:O6"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AC4:AU4"/>
+    <mergeCell ref="AC19:AU19"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="AC30:AU31"/>
+    <mergeCell ref="Z34:AU35"/>
+    <mergeCell ref="Z38:AU39"/>
+    <mergeCell ref="E27:W28"/>
+    <mergeCell ref="E29:W30"/>
+    <mergeCell ref="E31:W32"/>
+    <mergeCell ref="AB26:AB27"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="Z33:AU33"/>
+    <mergeCell ref="Z37:AL37"/>
+    <mergeCell ref="AM37:AU37"/>
+    <mergeCell ref="E37:W38"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="Z9:AA10"/>
+    <mergeCell ref="Z11:AA12"/>
+    <mergeCell ref="Z13:AA14"/>
+    <mergeCell ref="Z15:AA16"/>
+    <mergeCell ref="Z20:AA21"/>
+    <mergeCell ref="Z22:AA23"/>
+    <mergeCell ref="Z24:AA25"/>
+    <mergeCell ref="Z26:AA27"/>
+    <mergeCell ref="Z28:AA29"/>
+    <mergeCell ref="Z30:AA31"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="Z54:AU54"/>
+    <mergeCell ref="E53:W54"/>
+    <mergeCell ref="E33:W34"/>
+    <mergeCell ref="E35:W36"/>
+    <mergeCell ref="Z41:AU41"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="P13:W14"/>
+    <mergeCell ref="B17:O18"/>
+    <mergeCell ref="P16:W18"/>
+    <mergeCell ref="E21:W22"/>
+    <mergeCell ref="E23:W24"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="E20:W20"/>
+    <mergeCell ref="P12:W12"/>
+    <mergeCell ref="P15:W15"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B11:O12"/>
     <mergeCell ref="E55:W56"/>
     <mergeCell ref="E57:W58"/>
     <mergeCell ref="E59:W60"/>
@@ -6110,112 +6246,6 @@
     <mergeCell ref="AC15:AU16"/>
     <mergeCell ref="E41:W42"/>
     <mergeCell ref="E25:W26"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="P13:W14"/>
-    <mergeCell ref="B17:O18"/>
-    <mergeCell ref="P16:W18"/>
-    <mergeCell ref="E21:W22"/>
-    <mergeCell ref="E23:W24"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="E20:W20"/>
-    <mergeCell ref="P12:W12"/>
-    <mergeCell ref="P15:W15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B11:O12"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="Z9:AA10"/>
-    <mergeCell ref="Z11:AA12"/>
-    <mergeCell ref="Z13:AA14"/>
-    <mergeCell ref="Z15:AA16"/>
-    <mergeCell ref="Z20:AA21"/>
-    <mergeCell ref="Z22:AA23"/>
-    <mergeCell ref="Z24:AA25"/>
-    <mergeCell ref="Z26:AA27"/>
-    <mergeCell ref="Z28:AA29"/>
-    <mergeCell ref="Z30:AA31"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="Z54:AU54"/>
-    <mergeCell ref="E53:W54"/>
-    <mergeCell ref="E33:W34"/>
-    <mergeCell ref="E35:W36"/>
-    <mergeCell ref="Z41:AU41"/>
-    <mergeCell ref="E27:W28"/>
-    <mergeCell ref="E29:W30"/>
-    <mergeCell ref="E31:W32"/>
-    <mergeCell ref="AB26:AB27"/>
-    <mergeCell ref="AB28:AB29"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="Z33:AU33"/>
-    <mergeCell ref="Z37:AL37"/>
-    <mergeCell ref="AM37:AU37"/>
-    <mergeCell ref="E37:W38"/>
-    <mergeCell ref="E39:W40"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="Z55:AU60"/>
-    <mergeCell ref="Z42:AU52"/>
-    <mergeCell ref="B14:O15"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="C5:O6"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AC4:AU4"/>
-    <mergeCell ref="AC19:AU19"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="AC30:AU31"/>
-    <mergeCell ref="Z34:AU35"/>
-    <mergeCell ref="Z38:AU39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
